--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="226">
   <si>
     <t>Asignatura</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Repasa los aportes a la genética desde Mendel hasta Sutton y Boveri</t>
-  </si>
-  <si>
     <t>CN_08_07_CO</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t xml:space="preserve">Entrecruzamiento </t>
   </si>
   <si>
-    <t>Ligamiento y entrecruzamiento</t>
-  </si>
-  <si>
     <t>Dos imágenes de menú, una para ligamiento y otra para entrecruzamiento. En la explicación de este último se debe resaltar la influencia de este proceso en la variabilidad genpetica, y recordar por qué esta es importante (los estudiantes ya lo deben haber visto)</t>
   </si>
   <si>
@@ -398,15 +392,9 @@
     <t>Preguntar sobre la determinación del sexo y herencia ligada al sexo. Y preguntar por el daltonismo ("si en una parjea el hombre sufre de daltonismo y la mujer… "cosas así, para evaluar si se entendió bien la herencia de esa enfermedad)</t>
   </si>
   <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: la herencia ligada al sexo </t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad acerca de los cromosomas sexuales </t>
   </si>
   <si>
-    <t>Diferentes formas de expresión de genes</t>
-  </si>
-  <si>
     <t>Interactivo que explica diferentes formas en las que los genes determinan los rasgos fenotípicos</t>
   </si>
   <si>
@@ -425,18 +413,9 @@
     <t>Actividad que permite reconocer diferentes tipos de herencia e interacciones genéticas</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: reconoce diferentes tipos de herencia e interacciones genéticas</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: análisis de pedigríes humanos</t>
-  </si>
-  <si>
     <t>Interactivo que presenta diferentes pedigríes humanos de condiciones genéticas con distintos patrones de herencia</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: los tipos de herencia</t>
-  </si>
-  <si>
     <t>Actividad para afianzar el conocimiento acerca de los distintos tipos de herencia</t>
   </si>
   <si>
@@ -446,18 +425,6 @@
     <t xml:space="preserve">Se hacen árboles genealógicos que muestran distintas condiciones con diferentes patrones de herencia. Al comienzo sale una parte del árbol, y al avanzar en el recurso se va revelando el resto. Hay un formato hecho para esto, que puede adaptarse; preguntarlo. </t>
   </si>
   <si>
-    <t>Interactivo que presenta los diferentes tipos de enfermedades hereditarias</t>
-  </si>
-  <si>
-    <t>Clasificación de las enfermedades hereditarias</t>
-  </si>
-  <si>
-    <t>Las enfermedades hereditarias</t>
-  </si>
-  <si>
-    <t>Exponer las enfermedades: monogpenicas, multifactoriales, cromosómicas, mitocondriales.</t>
-  </si>
-  <si>
     <t>Identifica los tipos de enfermedades genéticas</t>
   </si>
   <si>
@@ -479,12 +446,6 @@
     <t>Interactivo que presenta diferentes enfermedades genéticas hereditarias y no hereditarias</t>
   </si>
   <si>
-    <t>Las mutaciones</t>
-  </si>
-  <si>
-    <t>Actividad que permite reconocer las características de las mutaciones genéticas</t>
-  </si>
-  <si>
     <t>Los alelos letales</t>
   </si>
   <si>
@@ -521,39 +482,15 @@
     <t>Actividad para consolidar el conocimiento acerca de las pruebas de diagnóstico genético y sus características</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: enfermedades y pruebas</t>
-  </si>
-  <si>
     <t>Actividad que trata sobre enfermedades genéticas y pruebas de diagnóstico genético</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: enfermedades y pruebas genéticas</t>
-  </si>
-  <si>
     <t>Preguntas sobre utilidad y definición de las pruebas de diagnótico genético; también se pregunta específicamente por dermatoglifos, cariotipo y diagnóstico prenatal</t>
   </si>
   <si>
-    <t>Competencias: la genética después de Mendel</t>
-  </si>
-  <si>
-    <t>Competencias: conocimientos avanzados de genética</t>
-  </si>
-  <si>
-    <t>Actividad acerca de diferentes aspectos de la genética</t>
-  </si>
-  <si>
-    <t>Actividad para consolidar lo aprendido sobre genética mendeliana y no mendeliana</t>
-  </si>
-  <si>
-    <t>Preguntas diversas sobre lo estudiado en el capítulo</t>
-  </si>
-  <si>
     <t>Competencias: indagación sobre la fibrosis quística</t>
   </si>
   <si>
-    <t>Actividad que propone investigar el estudio del origen, el método de detección y el tratamiento de la fibrosis quística</t>
-  </si>
-  <si>
     <t>Competencias: comparación y análisis de cariotipos</t>
   </si>
   <si>
@@ -653,9 +590,6 @@
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>Recurso M4A-02</t>
-  </si>
-  <si>
     <t>Aprende sobre la variabilidad genética</t>
   </si>
   <si>
@@ -684,6 +618,87 @@
   </si>
   <si>
     <t>Competencias: investigación de las enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Banco de actividades: La genética después de Mendel</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema La genética después de Mendel</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>El ligamiento y el entrecruzamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La herencia ligada al sexo </t>
+  </si>
+  <si>
+    <t>Análisis de pedigríes humanos</t>
+  </si>
+  <si>
+    <t>La herencia materna</t>
+  </si>
+  <si>
+    <t>Los tipos de herencia</t>
+  </si>
+  <si>
+    <t>Reconoce diferentes tipos de herencia e interacciones genéticas</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: otros tipos de herencia</t>
+  </si>
+  <si>
+    <t>Actividad que trata sobre otros tipos de herencia además de la herencia mendeliana clásica</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta los diferentes tipos de enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Clasificación de las enfermedades genéticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponer las enfermedades monogénicas, multifactoriales, cromosómicas, mitocondriales. Se debe hacer una ficha para diferenciar enfermedades genéticas hereditarias y no hereditarias; puede ser la última, y allí se explixca que en las otras categorías puede haber enfermedades que se hereden y otras que no. Por ejemplo, las monogénicas pueden ser mutaciones en el cromosoma X o en un cromosoma somático (no hay que olvidar que no se conocen enfermedades ligadas a Y). Esta ficha debe ser diferente de alguna forma, para que esta separación no parezca de la misma categoría que las anteriores. Se puede, por ejemplo, poner como título de las demás fichas una palabra o frase (Enfermedades monogénicas, p.e.), y en la última una pregunta: "¿Son hereditarias o no?", o alguna cosa así.  </t>
+  </si>
+  <si>
+    <t>Los diferentes tipos de enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Repasa las características de las pruebas de diagnóstico genético</t>
+  </si>
+  <si>
+    <t>Actividad de refuerzo sobre algunas pruebas de diagnóstico genético</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema La genética después de Mendel</t>
+  </si>
+  <si>
+    <t>MAPA CONCEPTUAL</t>
+  </si>
+  <si>
+    <t>Repasa los aportes a la genética de Mendel, Sutton y Boveri</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar lo aprendido sobre la herencia ligada al sexo</t>
+  </si>
+  <si>
+    <t>Las diferentes formas de expresión de genes</t>
+  </si>
+  <si>
+    <t>Recurso M1B-02</t>
+  </si>
+  <si>
+    <t>Las mutaciones y las enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Actividad que permite reconocer la relación de las mutaciones con las enfermedades</t>
+  </si>
+  <si>
+    <t>Las enfermedades y las pruebas genéticas</t>
+  </si>
+  <si>
+    <t>Actividad que propone investigar el origen, el método de detección y el tratamiento de la fibrosis quística</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1712,22 +1727,22 @@
         <v>67</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="G3" s="61" t="s">
         <v>103</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>104</v>
       </c>
       <c r="H3" s="34">
         <v>1</v>
@@ -1736,7 +1751,7 @@
         <v>91</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>69</v>
@@ -1749,7 +1764,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P3" s="46" t="s">
         <v>19</v>
@@ -1758,16 +1773,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1775,20 +1790,20 @@
         <v>67</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>101</v>
-      </c>
       <c r="E4" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="30">
         <v>2</v>
@@ -1797,7 +1812,7 @@
         <v>91</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K4" s="52" t="s">
         <v>69</v>
@@ -1817,16 +1832,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="57" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="S4" s="57" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="T4" s="57" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="U4" s="58" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1834,20 +1849,20 @@
         <v>67</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="63" t="s">
-        <v>101</v>
-      </c>
       <c r="E5" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="62" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1856,7 +1871,7 @@
         <v>92</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K5" s="43" t="s">
         <v>69</v>
@@ -1876,16 +1891,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1893,20 +1908,20 @@
         <v>67</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="D6" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>101</v>
-      </c>
       <c r="E6" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="40" t="s">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -1915,7 +1930,7 @@
         <v>91</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>69</v>
@@ -1928,7 +1943,7 @@
         <v>39</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P6" s="44" t="s">
         <v>19</v>
@@ -1937,16 +1952,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1954,20 +1969,20 @@
         <v>67</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="63" t="s">
-        <v>101</v>
-      </c>
       <c r="E7" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="40" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
@@ -1976,7 +1991,7 @@
         <v>92</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K7" s="43" t="s">
         <v>70</v>
@@ -1991,19 +2006,19 @@
         <v>19</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="T7" s="27" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="U7" s="36" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2011,20 +2026,20 @@
         <v>67</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="D8" s="63" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>101</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="30">
         <v>6</v>
@@ -2033,7 +2048,7 @@
         <v>92</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K8" s="43" t="s">
         <v>69</v>
@@ -2046,7 +2061,7 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P8" s="44" t="s">
         <v>19</v>
@@ -2055,16 +2070,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="S8" s="27" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="T8" s="27" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2072,20 +2087,20 @@
         <v>67</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D9" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>119</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
@@ -2094,7 +2109,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K9" s="43" t="s">
         <v>70</v>
@@ -2109,19 +2124,19 @@
         <v>19</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2129,20 +2144,20 @@
         <v>67</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>119</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>93</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="40" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2151,7 +2166,7 @@
         <v>92</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="K10" s="43" t="s">
         <v>69</v>
@@ -2160,29 +2175,27 @@
         <v>32</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="O10" s="8"/>
       <c r="P10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="47">
         <v>6</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="T10" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="U10" s="1" t="s">
+      <c r="R10" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="T10" s="27" t="s">
         <v>197</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2190,20 +2203,20 @@
         <v>67</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
@@ -2212,7 +2225,7 @@
         <v>92</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K11" s="43" t="s">
         <v>69</v>
@@ -2220,26 +2233,30 @@
       <c r="L11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="N11" s="9"/>
-      <c r="O11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="P11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="13">
         <v>6</v>
       </c>
-      <c r="R11" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="T11" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>197</v>
+      <c r="R11" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="T11" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2247,18 +2264,18 @@
         <v>67</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="38"/>
       <c r="G12" s="40" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
@@ -2267,7 +2284,7 @@
         <v>91</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K12" s="43" t="s">
         <v>69</v>
@@ -2280,7 +2297,7 @@
         <v>36</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P12" s="44" t="s">
         <v>19</v>
@@ -2289,73 +2306,75 @@
         <v>6</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="S12" s="27" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>131</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E13" s="29"/>
       <c r="F13" s="38"/>
       <c r="G13" s="40" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="H13" s="30">
         <v>11</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="8"/>
+      <c r="N13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="P13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="R13" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="S13" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="T13" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="U13" s="37" t="s">
-        <v>218</v>
+      <c r="Q13" s="13">
+        <v>6</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2363,20 +2382,20 @@
         <v>67</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="40" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H14" s="30">
         <v>12</v>
@@ -2385,57 +2404,55 @@
         <v>92</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K14" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>84</v>
-      </c>
+      <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="8"/>
       <c r="P14" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="48">
-        <v>6</v>
+      <c r="Q14" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="R14" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="S14" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="S14" s="28" t="s">
+      <c r="T14" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="T14" s="28" t="s">
-        <v>202</v>
-      </c>
       <c r="U14" s="37" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D15" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="40" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
@@ -2444,7 +2461,7 @@
         <v>92</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K15" s="43" t="s">
         <v>69</v>
@@ -2453,27 +2470,27 @@
         <v>32</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="8"/>
       <c r="P15" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="48">
         <v>6</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="U15" s="37" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2481,60 +2498,58 @@
         <v>67</v>
       </c>
       <c r="B16" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D16" s="16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="40" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K16" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>140</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" s="9"/>
+      <c r="O16" s="8"/>
       <c r="P16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q16" s="48">
         <v>6</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="T16" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="S16" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>185</v>
+      <c r="U16" s="37" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2542,60 +2557,58 @@
         <v>67</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D17" s="16" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="40" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="K17" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>144</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="9"/>
+      <c r="O17" s="8"/>
       <c r="P17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="48">
         <v>6</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>185</v>
+      <c r="R17" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="U17" s="37" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2603,39 +2616,43 @@
         <v>67</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D18" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="29"/>
+        <v>132</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>213</v>
+      </c>
       <c r="F18" s="38"/>
       <c r="G18" s="40" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="K18" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="P18" s="44" t="s">
         <v>19</v>
       </c>
@@ -2643,16 +2660,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2660,45 +2677,41 @@
         <v>67</v>
       </c>
       <c r="B19" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" s="16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>154</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F19" s="38"/>
       <c r="G19" s="40" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K19" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>149</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="9"/>
+      <c r="O19" s="8"/>
       <c r="P19" s="44" t="s">
         <v>19</v>
       </c>
@@ -2706,16 +2719,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="S19" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="T19" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="U19" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2723,43 +2736,45 @@
         <v>67</v>
       </c>
       <c r="B20" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D20" s="16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="K20" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="P20" s="44" t="s">
         <v>19</v>
       </c>
@@ -2767,16 +2782,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2784,60 +2799,60 @@
         <v>67</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D21" s="16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="K21" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="9"/>
       <c r="O21" s="8"/>
       <c r="P21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="48">
+      <c r="Q21" s="13">
         <v>6</v>
       </c>
-      <c r="R21" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="S21" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="T21" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="U21" s="37" t="s">
-        <v>185</v>
+      <c r="R21" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2845,58 +2860,60 @@
         <v>67</v>
       </c>
       <c r="B22" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>139</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="40" t="s">
-        <v>156</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="K22" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N22" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="O22" s="8"/>
       <c r="P22" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="48">
         <v>6</v>
       </c>
-      <c r="R22" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>197</v>
+      <c r="R22" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="U22" s="37" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2904,60 +2921,58 @@
         <v>67</v>
       </c>
       <c r="B23" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D23" s="16" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="40" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="K23" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>161</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="48">
+      <c r="Q23" s="13">
         <v>6</v>
       </c>
-      <c r="R23" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="S23" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="T23" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="U23" s="37" t="s">
-        <v>185</v>
+      <c r="R23" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2965,20 +2980,18 @@
         <v>67</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D24" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>162</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="E24" s="29"/>
       <c r="F24" s="38"/>
       <c r="G24" s="40" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
@@ -2987,34 +3000,38 @@
         <v>91</v>
       </c>
       <c r="J24" s="41" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="K24" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>31</v>
       </c>
       <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="8"/>
+      <c r="N24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>148</v>
+      </c>
       <c r="P24" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="48" t="s">
-        <v>212</v>
+      <c r="Q24" s="48">
+        <v>6</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="T24" s="28" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="U24" s="37" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3022,56 +3039,56 @@
         <v>67</v>
       </c>
       <c r="B25" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D25" s="16" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="40" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="K25" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="48">
-        <v>6</v>
+      <c r="P25" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="R25" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="S25" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="S25" s="28" t="s">
-        <v>195</v>
-      </c>
       <c r="T25" s="28" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="U25" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3079,20 +3096,20 @@
         <v>67</v>
       </c>
       <c r="B26" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D26" s="16" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="F26" s="38"/>
-      <c r="G26" s="41" t="s">
-        <v>168</v>
+      <c r="G26" s="40" t="s">
+        <v>224</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
@@ -3101,7 +3118,7 @@
         <v>92</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="K26" s="43" t="s">
         <v>69</v>
@@ -3110,25 +3127,27 @@
         <v>32</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="44"/>
+      <c r="P26" s="44" t="s">
+        <v>19</v>
+      </c>
       <c r="Q26" s="48">
         <v>6</v>
       </c>
       <c r="R26" s="28" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3136,20 +3155,20 @@
         <v>67</v>
       </c>
       <c r="B27" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D27" s="16" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="F27" s="38"/>
-      <c r="G27" s="40" t="s">
-        <v>164</v>
+      <c r="G27" s="41" t="s">
+        <v>214</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
@@ -3158,7 +3177,7 @@
         <v>92</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="K27" s="43" t="s">
         <v>69</v>
@@ -3167,27 +3186,27 @@
         <v>32</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="N27" s="9"/>
-      <c r="O27" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="P27" s="44"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="Q27" s="48">
         <v>6</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3195,18 +3214,20 @@
         <v>67</v>
       </c>
       <c r="B28" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D28" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="29"/>
+        <v>145</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="F28" s="38"/>
       <c r="G28" s="40" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3215,7 +3236,7 @@
         <v>92</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="K28" s="43" t="s">
         <v>69</v>
@@ -3228,23 +3249,25 @@
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="P28" s="44"/>
+        <v>154</v>
+      </c>
+      <c r="P28" s="44" t="s">
+        <v>19</v>
+      </c>
       <c r="Q28" s="48">
         <v>6</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="T28" s="28" t="s">
         <v>201</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3252,10 +3275,10 @@
         <v>67</v>
       </c>
       <c r="B29" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>94</v>
@@ -3263,7 +3286,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="38"/>
       <c r="G29" s="40" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
@@ -3272,36 +3295,34 @@
         <v>92</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="K29" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="M29" s="9"/>
       <c r="N29" s="9"/>
-      <c r="O29" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="48">
-        <v>6</v>
+      <c r="O29" s="8"/>
+      <c r="P29" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="48" t="s">
+        <v>190</v>
       </c>
       <c r="R29" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="S29" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="S29" s="28" t="s">
-        <v>195</v>
-      </c>
       <c r="T29" s="28" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="U29" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3309,10 +3330,10 @@
         <v>67</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>94</v>
@@ -3320,7 +3341,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="38"/>
       <c r="G30" s="40" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
@@ -3329,32 +3350,36 @@
         <v>92</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K30" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="9"/>
+      <c r="M30" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="N30" s="9"/>
       <c r="O30" s="8"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="48" t="s">
-        <v>212</v>
+      <c r="P30" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="48">
+        <v>6</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="S30" s="28" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="U30" s="37" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3362,10 +3387,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>94</v>
@@ -3373,7 +3398,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="38"/>
       <c r="G31" s="40" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
@@ -3382,7 +3407,7 @@
         <v>92</v>
       </c>
       <c r="J31" s="41" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="K31" s="43" t="s">
         <v>69</v>
@@ -3395,21 +3420,23 @@
       </c>
       <c r="N31" s="9"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="44"/>
+      <c r="P31" s="44" t="s">
+        <v>19</v>
+      </c>
       <c r="Q31" s="48">
         <v>6</v>
       </c>
       <c r="R31" s="28" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="S31" s="28" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="T31" s="28" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="U31" s="37" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3417,18 +3444,18 @@
         <v>67</v>
       </c>
       <c r="B32" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="D32" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="38"/>
       <c r="G32" s="40" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
@@ -3437,45 +3464,35 @@
         <v>92</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="K32" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="9" t="s">
-        <v>64</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="48">
-        <v>6</v>
-      </c>
-      <c r="R32" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="S32" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="T32" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="U32" s="37" t="s">
-        <v>197</v>
-      </c>
+      <c r="P32" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="15"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B33" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>95</v>
@@ -3483,7 +3500,7 @@
       <c r="E33" s="29"/>
       <c r="F33" s="38"/>
       <c r="G33" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H33" s="30">
         <v>31</v>
@@ -3491,30 +3508,48 @@
       <c r="I33" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="41"/>
+      <c r="J33" s="41" t="s">
+        <v>160</v>
+      </c>
       <c r="K33" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="9"/>
+      <c r="L33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="N33" s="9"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="15"/>
+      <c r="P33" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>6</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="T33" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>95</v>
@@ -3522,7 +3557,7 @@
       <c r="E34" s="29"/>
       <c r="F34" s="38"/>
       <c r="G34" s="40" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="H34" s="30">
         <v>32</v>
@@ -3531,7 +3566,7 @@
         <v>92</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K34" s="43" t="s">
         <v>69</v>
@@ -3540,29 +3575,36 @@
         <v>32</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="N34" s="9"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="44"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="44" t="s">
+        <v>20</v>
+      </c>
       <c r="Q34" s="13">
         <v>6</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3578,56 +3620,9 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$D$2:$D$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$E$2:$E$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>K3:K34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$F$2:$F$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>L3:L34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$G$2:$G$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>P3:P34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$C$2:$C$39</xm:f>
-          </x14:formula1>
-          <xm:sqref>M3:M34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$B$2:$B$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>N3:N34</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -805,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -847,21 +847,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1108,12 +1093,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1137,8 +1148,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,22 +1161,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1187,74 +1198,77 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1262,61 +1276,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1592,7 +1606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1602,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,8 +1634,8 @@
     <col min="10" max="10" width="129.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="25" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14" style="25" customWidth="1"/>
     <col min="15" max="15" width="90.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" style="24" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="10" customWidth="1"/>
@@ -1660,26 +1674,26 @@
       <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="72" t="s">
+      <c r="K1" s="71" t="s">
         <v>71</v>
       </c>
       <c r="L1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="M1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="69"/>
+      <c r="N1" s="77"/>
       <c r="O1" s="65" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="70" t="s">
+      <c r="Q1" s="69" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="65" t="s">
@@ -1705,18 +1719,18 @@
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
       <c r="L2" s="68"/>
       <c r="M2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
-      <c r="Q2" s="71"/>
+      <c r="Q2" s="70"/>
       <c r="R2" s="66"/>
       <c r="S2" s="66"/>
       <c r="T2" s="66"/>
@@ -1759,10 +1773,10 @@
       <c r="L3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>36</v>
       </c>
+      <c r="N3" s="20"/>
       <c r="O3" s="19" t="s">
         <v>105</v>
       </c>
@@ -1820,10 +1834,10 @@
       <c r="L4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54" t="s">
+      <c r="M4" s="54" t="s">
         <v>37</v>
       </c>
+      <c r="N4" s="54"/>
       <c r="O4" s="53"/>
       <c r="P4" s="55" t="s">
         <v>19</v>
@@ -1879,10 +1893,10 @@
       <c r="L5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="9"/>
       <c r="O5" s="8"/>
       <c r="P5" s="44" t="s">
         <v>19</v>
@@ -1938,10 +1952,10 @@
       <c r="L6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9" t="s">
+      <c r="M6" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="N6" s="9"/>
       <c r="O6" s="8" t="s">
         <v>111</v>
       </c>
@@ -2056,10 +2070,10 @@
       <c r="L8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="9"/>
       <c r="O8" s="8" t="s">
         <v>116</v>
       </c>
@@ -2174,10 +2188,10 @@
       <c r="L10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="9"/>
       <c r="O10" s="8"/>
       <c r="P10" s="44" t="s">
         <v>19</v>
@@ -2233,10 +2247,10 @@
       <c r="L11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="9"/>
       <c r="O11" s="8" t="s">
         <v>122</v>
       </c>
@@ -2292,10 +2306,10 @@
       <c r="L12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="N12" s="9"/>
       <c r="O12" s="8" t="s">
         <v>126</v>
       </c>
@@ -2351,10 +2365,10 @@
       <c r="L13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="N13" s="9"/>
       <c r="O13" s="8" t="s">
         <v>133</v>
       </c>
@@ -2469,10 +2483,10 @@
       <c r="L15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="9"/>
       <c r="O15" s="8"/>
       <c r="P15" s="44" t="s">
         <v>20</v>
@@ -2528,10 +2542,10 @@
       <c r="L16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N16" s="9"/>
       <c r="O16" s="8"/>
       <c r="P16" s="44" t="s">
         <v>19</v>
@@ -2587,10 +2601,10 @@
       <c r="L17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N17" s="9"/>
       <c r="O17" s="8"/>
       <c r="P17" s="44" t="s">
         <v>19</v>
@@ -2646,10 +2660,10 @@
       <c r="L18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9" t="s">
+      <c r="M18" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="N18" s="9"/>
       <c r="O18" s="8" t="s">
         <v>212</v>
       </c>
@@ -2707,10 +2721,10 @@
       <c r="L19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="9"/>
+      <c r="N19" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N19" s="9"/>
       <c r="O19" s="8"/>
       <c r="P19" s="44" t="s">
         <v>19</v>
@@ -2768,10 +2782,10 @@
       <c r="L20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="N20" s="9"/>
       <c r="O20" s="8" t="s">
         <v>138</v>
       </c>
@@ -2831,10 +2845,10 @@
       <c r="L21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="9" t="s">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N21" s="9"/>
       <c r="O21" s="8"/>
       <c r="P21" s="44" t="s">
         <v>19</v>
@@ -2892,10 +2906,10 @@
       <c r="L22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9" t="s">
+      <c r="M22" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="N22" s="9"/>
       <c r="O22" s="8"/>
       <c r="P22" s="44" t="s">
         <v>19</v>
@@ -2951,10 +2965,10 @@
       <c r="L23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="9"/>
+      <c r="N23" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N23" s="9"/>
       <c r="O23" s="8"/>
       <c r="P23" s="44" t="s">
         <v>19</v>
@@ -3008,10 +3022,10 @@
       <c r="L24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9" t="s">
+      <c r="M24" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="N24" s="9"/>
       <c r="O24" s="8" t="s">
         <v>148</v>
       </c>
@@ -3126,10 +3140,10 @@
       <c r="L26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" s="9"/>
+      <c r="N26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N26" s="9"/>
       <c r="O26" s="8"/>
       <c r="P26" s="44" t="s">
         <v>19</v>
@@ -3185,10 +3199,10 @@
       <c r="L27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="N27" s="9"/>
       <c r="O27" s="8"/>
       <c r="P27" s="44" t="s">
         <v>20</v>
@@ -3244,10 +3258,10 @@
       <c r="L28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="9"/>
+      <c r="N28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N28" s="9"/>
       <c r="O28" s="8" t="s">
         <v>154</v>
       </c>
@@ -3358,10 +3372,10 @@
       <c r="L30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="9"/>
+      <c r="N30" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N30" s="9"/>
       <c r="O30" s="8"/>
       <c r="P30" s="44" t="s">
         <v>19</v>
@@ -3415,10 +3429,10 @@
       <c r="L31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="9"/>
+      <c r="N31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="9"/>
       <c r="O31" s="8"/>
       <c r="P31" s="44" t="s">
         <v>19</v>
@@ -3517,10 +3531,10 @@
       <c r="L33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="9"/>
+      <c r="N33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="9"/>
       <c r="O33" s="8"/>
       <c r="P33" s="44" t="s">
         <v>19</v>
@@ -3574,10 +3588,10 @@
       <c r="L34" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" s="9"/>
+      <c r="N34" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="44" t="s">
         <v>20</v>
@@ -3600,11 +3614,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3620,6 +3629,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4310,7 +4324,7 @@
       <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="73" t="s">
         <v>90</v>
       </c>
       <c r="H1" s="65" t="s">
@@ -4324,8 +4338,8 @@
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -311,394 +311,394 @@
     <t>Fin de unidad</t>
   </si>
   <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>CN_08_07_CO</t>
+  </si>
+  <si>
+    <t>La genética después de Mendel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La teoría cromosómica de la herencia </t>
+  </si>
+  <si>
+    <t>Las investigaciones de Boveri</t>
+  </si>
+  <si>
+    <t>Los trabajos de Sutton y Boveri</t>
+  </si>
+  <si>
+    <t>La teoría cromosómica de la herencia: Mendel, Sutton y Boveri</t>
+  </si>
+  <si>
+    <t>Actividad para repasar los aportes hechos a la genética por Mendel, Sutton y Boveri</t>
+  </si>
+  <si>
+    <t>Hay una ficha para cada investigador. En la parte de Mendel se deben explicar sus leyes de la herencia.</t>
+  </si>
+  <si>
+    <t>Los experimentos de Thomas Morgan</t>
+  </si>
+  <si>
+    <t>Los aportes de Morgan a la genética</t>
+  </si>
+  <si>
+    <t>Interactivo que expone la teoría cromosómica de la herencia a partir de los trabajos de Mendel, Sutton y Boveri. Se deben mencionar algunos datos históricos (con qué organismo trabajaron, cuándo, en dónde), y se deben explicar las leyes de Mendel, recordando que esto es algo que los estudiantes ya vieron, por lo que sólo se necesita hacer el recordatorio.</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta los experimentos y aportes de Thomas Morgan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrecruzamiento </t>
+  </si>
+  <si>
+    <t>Dos imágenes de menú, una para ligamiento y otra para entrecruzamiento. En la explicación de este último se debe resaltar la influencia de este proceso en la variabilidad genpetica, y recordar por qué esta es importante (los estudiantes ya lo deben haber visto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo que explica los fenómenos de ligamiento y entrecruzamiento. Explicar que el entrecruzamiento es una forma de recombinación genética (y explicar qué es recombinación), y qué es el quiasma. </t>
+  </si>
+  <si>
+    <t>Actividad para repasar algunos aspectos relacionados con la variabilidad genética</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: la teoría cromosómica de la herencia</t>
+  </si>
+  <si>
+    <t>Actividad acerca de la teoría cromosómica de la herencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preguntar por los trabajos de Mendel, Sutton y Boveri, y también por entrecruzamiento y ligamiento </t>
+  </si>
+  <si>
+    <t>Los cromosomas sexuales</t>
+  </si>
+  <si>
+    <t>La herencia del sexo y la herencia ligada al sexo</t>
+  </si>
+  <si>
+    <t>La herencia ligada al sexo</t>
+  </si>
+  <si>
+    <t>Interactivo que trata sobre la combinación genética que determina la herencia del sexo y la herencia ligada al sexo</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: los cromosomas sexuales</t>
+  </si>
+  <si>
+    <t>Preguntar sobre la determinación del sexo y herencia ligada al sexo. Y preguntar por el daltonismo ("si en una parjea el hombre sufre de daltonismo y la mujer… "cosas así, para evaluar si se entendió bien la herencia de esa enfermedad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad acerca de los cromosomas sexuales </t>
+  </si>
+  <si>
+    <t>Interactivo que explica diferentes formas en las que los genes determinan los rasgos fenotípicos</t>
+  </si>
+  <si>
+    <t>Otros tipos de herencia</t>
+  </si>
+  <si>
+    <t>Explicar herencia polialélica (ejemplificar con los grupos sanguíneos, y usar la notación A,B,i), herencia poligénica (explicar epistasis), pleiotropía, y herencia materna.</t>
+  </si>
+  <si>
+    <t>La herencia de los grupos sanguíneos</t>
+  </si>
+  <si>
+    <t>Actividad para repasar la forma en la que se hereda el grupo sanguíneo</t>
+  </si>
+  <si>
+    <t>Actividad que permite reconocer diferentes tipos de herencia e interacciones genéticas</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta diferentes pedigríes humanos de condiciones genéticas con distintos patrones de herencia</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar el conocimiento acerca de los distintos tipos de herencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las enfermedades genéticas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se hacen árboles genealógicos que muestran distintas condiciones con diferentes patrones de herencia. Al comienzo sale una parte del árbol, y al avanzar en el recurso se va revelando el resto. Hay un formato hecho para esto, que puede adaptarse; preguntarlo. </t>
+  </si>
+  <si>
+    <t>Identifica los tipos de enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer las características de los diversos tipos de enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Las mutaciones como causa de enfermedad</t>
+  </si>
+  <si>
+    <t>Interactivo que trata sobre mutaciones y enfermedades genéticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera imagen del menú es tipos de mutación, que lleva las imágenes de mutación: somática, germinal, génica, cromosómica, genómica. El entrar en cada imagen se explica cada una. La seguna imagen es causa de la mutación, que lleva a espontánea (errores al replicar el ADN) e inducida (por agentes físicos, químicos o biológicos). La tercera imagen es casos graves o algo así, y de divide en alelos letales (hablar de fibrosis quistica), y cáncer (que no siempre es letal). </t>
+  </si>
+  <si>
+    <t>Las enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta diferentes enfermedades genéticas hereditarias y no hereditarias</t>
+  </si>
+  <si>
+    <t>Los alelos letales</t>
+  </si>
+  <si>
+    <t>Las mutaciones: posible causa de enfermedad</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: relaciona las enfermedades genéticas y las mutaciones</t>
+  </si>
+  <si>
+    <t>Actividad que permite establecer relaciones entre las enfermedades genéticas y las mutaciones</t>
+  </si>
+  <si>
+    <t>El diagnóstico genético</t>
+  </si>
+  <si>
+    <t>Conoce las pruebas de diagnóstico genético</t>
+  </si>
+  <si>
+    <t>Interactivo que explica distintas pruebas de diagnóstico genético</t>
+  </si>
+  <si>
+    <t>En la primera pestaña se explica qué son y para qué sirven las pruebas de diagnóstico genético. En la siguiente se explica el uso de dermatoglifos, en la siguiente el cariotipo, y en la siguiente se habla sobre diagnóstico prenatal</t>
+  </si>
+  <si>
+    <t>El diagnóstico prenatal</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta las técnicas de diagnóstico prenatal</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: el diagnóstico genético</t>
+  </si>
+  <si>
+    <t>Actividad para consolidar el conocimiento acerca de las pruebas de diagnóstico genético y sus características</t>
+  </si>
+  <si>
+    <t>Actividad que trata sobre enfermedades genéticas y pruebas de diagnóstico genético</t>
+  </si>
+  <si>
+    <t>Preguntas sobre utilidad y definición de las pruebas de diagnótico genético; también se pregunta específicamente por dermatoglifos, cariotipo y diagnóstico prenatal</t>
+  </si>
+  <si>
+    <t>Competencias: indagación sobre la fibrosis quística</t>
+  </si>
+  <si>
+    <t>Competencias: comparación y análisis de cariotipos</t>
+  </si>
+  <si>
+    <t>Actividad de comparación entre un cariotipo normal con otro que refleja una alteración cromosómica.</t>
+  </si>
+  <si>
+    <t>Competencias: reconocimiento de los dermatoglifos y su utilidad</t>
+  </si>
+  <si>
+    <t>Actividad de reconocimiento de dermatoglifos y su utilidad en el diagnóstico genético</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos acerca del tema La genética después de Mendel</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>Recurso F6-01</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso F6-02</t>
+  </si>
+  <si>
+    <t>Recurso F6-03</t>
+  </si>
+  <si>
+    <t>Recurso F13-01</t>
+  </si>
+  <si>
+    <t>Recurso F6B-01</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
+  </si>
+  <si>
+    <t>Recurso F8-01</t>
+  </si>
+  <si>
+    <t>Recurso F7-01</t>
+  </si>
+  <si>
+    <t>Recurso F13-02</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>Recurso M5D-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>Recurso M5D-02</t>
+  </si>
+  <si>
+    <t>Recurso M1B-01</t>
+  </si>
+  <si>
+    <t>Recurso M14A-01</t>
+  </si>
+  <si>
+    <t>Recurso M2A-01</t>
+  </si>
+  <si>
+    <t>Recurso M10A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-01</t>
+  </si>
+  <si>
+    <t>Aprende sobre la variabilidad genética</t>
+  </si>
+  <si>
+    <t>4º ESO</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>La reproducción celular</t>
+  </si>
+  <si>
+    <t>BG_10_06</t>
+  </si>
+  <si>
+    <t>La genética</t>
+  </si>
+  <si>
+    <t>Responde sobre la herencia de los grupos sanguíneos</t>
+  </si>
+  <si>
+    <t>BG_10_07</t>
+  </si>
+  <si>
+    <t>Recurso M3B-01</t>
+  </si>
+  <si>
+    <t>Competencias: investigación de las enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Banco de actividades: La genética después de Mendel</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema La genética después de Mendel</t>
+  </si>
+  <si>
+    <t>Recurso M101A-05</t>
+  </si>
+  <si>
+    <t>El ligamiento y el entrecruzamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La herencia ligada al sexo </t>
+  </si>
+  <si>
+    <t>Análisis de pedigríes humanos</t>
+  </si>
+  <si>
+    <t>La herencia materna</t>
+  </si>
+  <si>
+    <t>Los tipos de herencia</t>
+  </si>
+  <si>
+    <t>Reconoce diferentes tipos de herencia e interacciones genéticas</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: otros tipos de herencia</t>
+  </si>
+  <si>
+    <t>Actividad que trata sobre otros tipos de herencia además de la herencia mendeliana clásica</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta los diferentes tipos de enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Clasificación de las enfermedades genéticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponer las enfermedades monogénicas, multifactoriales, cromosómicas, mitocondriales. Se debe hacer una ficha para diferenciar enfermedades genéticas hereditarias y no hereditarias; puede ser la última, y allí se explixca que en las otras categorías puede haber enfermedades que se hereden y otras que no. Por ejemplo, las monogénicas pueden ser mutaciones en el cromosoma X o en un cromosoma somático (no hay que olvidar que no se conocen enfermedades ligadas a Y). Esta ficha debe ser diferente de alguna forma, para que esta separación no parezca de la misma categoría que las anteriores. Se puede, por ejemplo, poner como título de las demás fichas una palabra o frase (Enfermedades monogénicas, p.e.), y en la última una pregunta: "¿Son hereditarias o no?", o alguna cosa así.  </t>
+  </si>
+  <si>
+    <t>Los diferentes tipos de enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Repasa las características de las pruebas de diagnóstico genético</t>
+  </si>
+  <si>
+    <t>Actividad de refuerzo sobre algunas pruebas de diagnóstico genético</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema La genética después de Mendel</t>
+  </si>
+  <si>
+    <t>MAPA CONCEPTUAL</t>
+  </si>
+  <si>
+    <t>Repasa los aportes a la genética de Mendel, Sutton y Boveri</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar lo aprendido sobre la herencia ligada al sexo</t>
+  </si>
+  <si>
+    <t>Las diferentes formas de expresión de genes</t>
+  </si>
+  <si>
+    <t>Recurso M1B-02</t>
+  </si>
+  <si>
+    <t>Las mutaciones y las enfermedades genéticas</t>
+  </si>
+  <si>
+    <t>Actividad que permite reconocer la relación de las mutaciones con las enfermedades</t>
+  </si>
+  <si>
+    <t>Las enfermedades y las pruebas genéticas</t>
+  </si>
+  <si>
+    <t>Actividad que propone investigar el origen, el método de detección y el tratamiento de la fibrosis quística</t>
+  </si>
+  <si>
     <t>Mapa conceptual</t>
-  </si>
-  <si>
-    <t>Evaluación</t>
-  </si>
-  <si>
-    <t>CN_08_07_CO</t>
-  </si>
-  <si>
-    <t>La genética después de Mendel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La teoría cromosómica de la herencia </t>
-  </si>
-  <si>
-    <t>Las investigaciones de Boveri</t>
-  </si>
-  <si>
-    <t>Los trabajos de Sutton y Boveri</t>
-  </si>
-  <si>
-    <t>La teoría cromosómica de la herencia: Mendel, Sutton y Boveri</t>
-  </si>
-  <si>
-    <t>Actividad para repasar los aportes hechos a la genética por Mendel, Sutton y Boveri</t>
-  </si>
-  <si>
-    <t>Hay una ficha para cada investigador. En la parte de Mendel se deben explicar sus leyes de la herencia.</t>
-  </si>
-  <si>
-    <t>Los experimentos de Thomas Morgan</t>
-  </si>
-  <si>
-    <t>Los aportes de Morgan a la genética</t>
-  </si>
-  <si>
-    <t>Interactivo que expone la teoría cromosómica de la herencia a partir de los trabajos de Mendel, Sutton y Boveri. Se deben mencionar algunos datos históricos (con qué organismo trabajaron, cuándo, en dónde), y se deben explicar las leyes de Mendel, recordando que esto es algo que los estudiantes ya vieron, por lo que sólo se necesita hacer el recordatorio.</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta los experimentos y aportes de Thomas Morgan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrecruzamiento </t>
-  </si>
-  <si>
-    <t>Dos imágenes de menú, una para ligamiento y otra para entrecruzamiento. En la explicación de este último se debe resaltar la influencia de este proceso en la variabilidad genpetica, y recordar por qué esta es importante (los estudiantes ya lo deben haber visto)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo que explica los fenómenos de ligamiento y entrecruzamiento. Explicar que el entrecruzamiento es una forma de recombinación genética (y explicar qué es recombinación), y qué es el quiasma. </t>
-  </si>
-  <si>
-    <t>Actividad para repasar algunos aspectos relacionados con la variabilidad genética</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: la teoría cromosómica de la herencia</t>
-  </si>
-  <si>
-    <t>Actividad acerca de la teoría cromosómica de la herencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preguntar por los trabajos de Mendel, Sutton y Boveri, y también por entrecruzamiento y ligamiento </t>
-  </si>
-  <si>
-    <t>Los cromosomas sexuales</t>
-  </si>
-  <si>
-    <t>La herencia del sexo y la herencia ligada al sexo</t>
-  </si>
-  <si>
-    <t>La herencia ligada al sexo</t>
-  </si>
-  <si>
-    <t>Interactivo que trata sobre la combinación genética que determina la herencia del sexo y la herencia ligada al sexo</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: los cromosomas sexuales</t>
-  </si>
-  <si>
-    <t>Preguntar sobre la determinación del sexo y herencia ligada al sexo. Y preguntar por el daltonismo ("si en una parjea el hombre sufre de daltonismo y la mujer… "cosas así, para evaluar si se entendió bien la herencia de esa enfermedad)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad acerca de los cromosomas sexuales </t>
-  </si>
-  <si>
-    <t>Interactivo que explica diferentes formas en las que los genes determinan los rasgos fenotípicos</t>
-  </si>
-  <si>
-    <t>Otros tipos de herencia</t>
-  </si>
-  <si>
-    <t>Explicar herencia polialélica (ejemplificar con los grupos sanguíneos, y usar la notación A,B,i), herencia poligénica (explicar epistasis), pleiotropía, y herencia materna.</t>
-  </si>
-  <si>
-    <t>La herencia de los grupos sanguíneos</t>
-  </si>
-  <si>
-    <t>Actividad para repasar la forma en la que se hereda el grupo sanguíneo</t>
-  </si>
-  <si>
-    <t>Actividad que permite reconocer diferentes tipos de herencia e interacciones genéticas</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta diferentes pedigríes humanos de condiciones genéticas con distintos patrones de herencia</t>
-  </si>
-  <si>
-    <t>Actividad para afianzar el conocimiento acerca de los distintos tipos de herencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las enfermedades genéticas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se hacen árboles genealógicos que muestran distintas condiciones con diferentes patrones de herencia. Al comienzo sale una parte del árbol, y al avanzar en el recurso se va revelando el resto. Hay un formato hecho para esto, que puede adaptarse; preguntarlo. </t>
-  </si>
-  <si>
-    <t>Identifica los tipos de enfermedades genéticas</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer las características de los diversos tipos de enfermedades genéticas</t>
-  </si>
-  <si>
-    <t>Las mutaciones como causa de enfermedad</t>
-  </si>
-  <si>
-    <t>Interactivo que trata sobre mutaciones y enfermedades genéticas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primera imagen del menú es tipos de mutación, que lleva las imágenes de mutación: somática, germinal, génica, cromosómica, genómica. El entrar en cada imagen se explica cada una. La seguna imagen es causa de la mutación, que lleva a espontánea (errores al replicar el ADN) e inducida (por agentes físicos, químicos o biológicos). La tercera imagen es casos graves o algo así, y de divide en alelos letales (hablar de fibrosis quistica), y cáncer (que no siempre es letal). </t>
-  </si>
-  <si>
-    <t>Las enfermedades genéticas</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta diferentes enfermedades genéticas hereditarias y no hereditarias</t>
-  </si>
-  <si>
-    <t>Los alelos letales</t>
-  </si>
-  <si>
-    <t>Las mutaciones: posible causa de enfermedad</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: relaciona las enfermedades genéticas y las mutaciones</t>
-  </si>
-  <si>
-    <t>Actividad que permite establecer relaciones entre las enfermedades genéticas y las mutaciones</t>
-  </si>
-  <si>
-    <t>El diagnóstico genético</t>
-  </si>
-  <si>
-    <t>Conoce las pruebas de diagnóstico genético</t>
-  </si>
-  <si>
-    <t>Interactivo que explica distintas pruebas de diagnóstico genético</t>
-  </si>
-  <si>
-    <t>En la primera pestaña se explica qué son y para qué sirven las pruebas de diagnóstico genético. En la siguiente se explica el uso de dermatoglifos, en la siguiente el cariotipo, y en la siguiente se habla sobre diagnóstico prenatal</t>
-  </si>
-  <si>
-    <t>El diagnóstico prenatal</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta las técnicas de diagnóstico prenatal</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: el diagnóstico genético</t>
-  </si>
-  <si>
-    <t>Actividad para consolidar el conocimiento acerca de las pruebas de diagnóstico genético y sus características</t>
-  </si>
-  <si>
-    <t>Actividad que trata sobre enfermedades genéticas y pruebas de diagnóstico genético</t>
-  </si>
-  <si>
-    <t>Preguntas sobre utilidad y definición de las pruebas de diagnótico genético; también se pregunta específicamente por dermatoglifos, cariotipo y diagnóstico prenatal</t>
-  </si>
-  <si>
-    <t>Competencias: indagación sobre la fibrosis quística</t>
-  </si>
-  <si>
-    <t>Competencias: comparación y análisis de cariotipos</t>
-  </si>
-  <si>
-    <t>Actividad de comparación entre un cariotipo normal con otro que refleja una alteración cromosómica.</t>
-  </si>
-  <si>
-    <t>Competencias: reconocimiento de los dermatoglifos y su utilidad</t>
-  </si>
-  <si>
-    <t>Actividad de reconocimiento de dermatoglifos y su utilidad en el diagnóstico genético</t>
-  </si>
-  <si>
-    <t>Evalúa tus conocimientos acerca del tema La genética después de Mendel</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso F6-02</t>
-  </si>
-  <si>
-    <t>Recurso F6-03</t>
-  </si>
-  <si>
-    <t>Recurso F13-01</t>
-  </si>
-  <si>
-    <t>Recurso F6B-01</t>
-  </si>
-  <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
-    <t>Recurso F8-01</t>
-  </si>
-  <si>
-    <t>Recurso F7-01</t>
-  </si>
-  <si>
-    <t>Recurso F13-02</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>Recursos M</t>
-  </si>
-  <si>
-    <t>Recurso M5D-01</t>
-  </si>
-  <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
-    <t>Recurso M5D-02</t>
-  </si>
-  <si>
-    <t>Recurso M1B-01</t>
-  </si>
-  <si>
-    <t>Recurso M14A-01</t>
-  </si>
-  <si>
-    <t>Recurso M2A-01</t>
-  </si>
-  <si>
-    <t>Recurso M10A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
-  </si>
-  <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-01</t>
-  </si>
-  <si>
-    <t>Aprende sobre la variabilidad genética</t>
-  </si>
-  <si>
-    <t>4º ESO</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
-    <t>La reproducción celular</t>
-  </si>
-  <si>
-    <t>BG_10_06</t>
-  </si>
-  <si>
-    <t>La genética</t>
-  </si>
-  <si>
-    <t>Responde sobre la herencia de los grupos sanguíneos</t>
-  </si>
-  <si>
-    <t>BG_10_07</t>
-  </si>
-  <si>
-    <t>Recurso M3B-01</t>
-  </si>
-  <si>
-    <t>Competencias: investigación de las enfermedades genéticas</t>
-  </si>
-  <si>
-    <t>Banco de actividades: La genética después de Mendel</t>
-  </si>
-  <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema La genética después de Mendel</t>
-  </si>
-  <si>
-    <t>Recurso M101A-05</t>
-  </si>
-  <si>
-    <t>El ligamiento y el entrecruzamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La herencia ligada al sexo </t>
-  </si>
-  <si>
-    <t>Análisis de pedigríes humanos</t>
-  </si>
-  <si>
-    <t>La herencia materna</t>
-  </si>
-  <si>
-    <t>Los tipos de herencia</t>
-  </si>
-  <si>
-    <t>Reconoce diferentes tipos de herencia e interacciones genéticas</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: otros tipos de herencia</t>
-  </si>
-  <si>
-    <t>Actividad que trata sobre otros tipos de herencia además de la herencia mendeliana clásica</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta los diferentes tipos de enfermedades genéticas</t>
-  </si>
-  <si>
-    <t>Clasificación de las enfermedades genéticas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exponer las enfermedades monogénicas, multifactoriales, cromosómicas, mitocondriales. Se debe hacer una ficha para diferenciar enfermedades genéticas hereditarias y no hereditarias; puede ser la última, y allí se explixca que en las otras categorías puede haber enfermedades que se hereden y otras que no. Por ejemplo, las monogénicas pueden ser mutaciones en el cromosoma X o en un cromosoma somático (no hay que olvidar que no se conocen enfermedades ligadas a Y). Esta ficha debe ser diferente de alguna forma, para que esta separación no parezca de la misma categoría que las anteriores. Se puede, por ejemplo, poner como título de las demás fichas una palabra o frase (Enfermedades monogénicas, p.e.), y en la última una pregunta: "¿Son hereditarias o no?", o alguna cosa así.  </t>
-  </si>
-  <si>
-    <t>Los diferentes tipos de enfermedades genéticas</t>
-  </si>
-  <si>
-    <t>Repasa las características de las pruebas de diagnóstico genético</t>
-  </si>
-  <si>
-    <t>Actividad de refuerzo sobre algunas pruebas de diagnóstico genético</t>
-  </si>
-  <si>
-    <t>Mapa conceptual del tema La genética después de Mendel</t>
-  </si>
-  <si>
-    <t>MAPA CONCEPTUAL</t>
-  </si>
-  <si>
-    <t>Repasa los aportes a la genética de Mendel, Sutton y Boveri</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar lo aprendido sobre la herencia ligada al sexo</t>
-  </si>
-  <si>
-    <t>Las diferentes formas de expresión de genes</t>
-  </si>
-  <si>
-    <t>Recurso M1B-02</t>
-  </si>
-  <si>
-    <t>Las mutaciones y las enfermedades genéticas</t>
-  </si>
-  <si>
-    <t>Actividad que permite reconocer la relación de las mutaciones con las enfermedades</t>
-  </si>
-  <si>
-    <t>Las enfermedades y las pruebas genéticas</t>
-  </si>
-  <si>
-    <t>Actividad que propone investigar el origen, el método de detección y el tratamiento de la fibrosis quística</t>
   </si>
 </sst>
 </file>
@@ -1306,6 +1306,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1325,12 +1331,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1616,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,26 +1674,26 @@
       <c r="I1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="73" t="s">
         <v>71</v>
       </c>
       <c r="L1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="77"/>
+      <c r="N1" s="70"/>
       <c r="O1" s="65" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="71" t="s">
         <v>14</v>
       </c>
       <c r="R1" s="65" t="s">
@@ -1719,8 +1719,8 @@
       <c r="G2" s="66"/>
       <c r="H2" s="66"/>
       <c r="I2" s="66"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="68"/>
       <c r="M2" s="18" t="s">
         <v>87</v>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="O2" s="66"/>
       <c r="P2" s="66"/>
-      <c r="Q2" s="70"/>
+      <c r="Q2" s="72"/>
       <c r="R2" s="66"/>
       <c r="S2" s="66"/>
       <c r="T2" s="66"/>
@@ -1741,22 +1741,22 @@
         <v>67</v>
       </c>
       <c r="B3" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="G3" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>103</v>
       </c>
       <c r="H3" s="34">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         <v>91</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>69</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P3" s="46" t="s">
         <v>19</v>
@@ -1787,16 +1787,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="T3" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="U3" s="23" t="s">
         <v>163</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1804,20 +1804,20 @@
         <v>67</v>
       </c>
       <c r="B4" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>100</v>
-      </c>
       <c r="E4" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" s="30">
         <v>2</v>
@@ -1826,7 +1826,7 @@
         <v>91</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K4" s="52" t="s">
         <v>69</v>
@@ -1846,16 +1846,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="S4" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="S4" s="57" t="s">
-        <v>162</v>
-      </c>
       <c r="T4" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U4" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1863,20 +1863,20 @@
         <v>67</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="63" t="s">
-        <v>100</v>
-      </c>
       <c r="E5" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1885,7 +1885,7 @@
         <v>92</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5" s="43" t="s">
         <v>69</v>
@@ -1905,16 +1905,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="T5" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="T5" s="45" t="s">
+      <c r="U5" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1922,20 +1922,20 @@
         <v>67</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="D6" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>100</v>
-      </c>
       <c r="E6" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -1944,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>69</v>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P6" s="44" t="s">
         <v>19</v>
@@ -1966,16 +1966,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="S6" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="T6" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1983,20 +1983,20 @@
         <v>67</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="63" t="s">
-        <v>100</v>
-      </c>
       <c r="E7" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
@@ -2005,7 +2005,7 @@
         <v>92</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K7" s="43" t="s">
         <v>70</v>
@@ -2020,19 +2020,19 @@
         <v>19</v>
       </c>
       <c r="Q7" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="R7" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="S7" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="S7" s="27" t="s">
+      <c r="T7" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="U7" s="36" t="s">
         <v>192</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2040,20 +2040,20 @@
         <v>67</v>
       </c>
       <c r="B8" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="D8" s="63" t="s">
         <v>99</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>100</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="30">
         <v>6</v>
@@ -2062,7 +2062,7 @@
         <v>92</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K8" s="43" t="s">
         <v>69</v>
@@ -2075,7 +2075,7 @@
         <v>62</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P8" s="44" t="s">
         <v>19</v>
@@ -2084,16 +2084,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="S8" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="S8" s="27" t="s">
-        <v>174</v>
-      </c>
       <c r="T8" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U8" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2101,20 +2101,20 @@
         <v>67</v>
       </c>
       <c r="B9" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D9" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
@@ -2123,7 +2123,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K9" s="43" t="s">
         <v>70</v>
@@ -2138,19 +2138,19 @@
         <v>19</v>
       </c>
       <c r="Q9" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="R9" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="R9" s="27" t="s">
-        <v>191</v>
-      </c>
       <c r="S9" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2158,20 +2158,20 @@
         <v>67</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2180,7 +2180,7 @@
         <v>92</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K10" s="43" t="s">
         <v>69</v>
@@ -2200,16 +2200,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="S10" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="S10" s="27" t="s">
-        <v>174</v>
-      </c>
       <c r="T10" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U10" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2217,20 +2217,20 @@
         <v>67</v>
       </c>
       <c r="B11" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
@@ -2239,7 +2239,7 @@
         <v>92</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" s="43" t="s">
         <v>69</v>
@@ -2252,7 +2252,7 @@
         <v>62</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P11" s="44" t="s">
         <v>19</v>
@@ -2261,16 +2261,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="S11" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="T11" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2278,18 +2278,18 @@
         <v>67</v>
       </c>
       <c r="B12" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D12" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="38"/>
       <c r="G12" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
@@ -2298,7 +2298,7 @@
         <v>91</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K12" s="43" t="s">
         <v>69</v>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P12" s="44" t="s">
         <v>19</v>
@@ -2320,16 +2320,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="S12" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="S12" s="27" t="s">
-        <v>162</v>
-      </c>
       <c r="T12" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="U12" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2337,18 +2337,18 @@
         <v>67</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="38"/>
       <c r="G13" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H13" s="30">
         <v>11</v>
@@ -2357,7 +2357,7 @@
         <v>91</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" s="43" t="s">
         <v>69</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P13" s="44" t="s">
         <v>19</v>
@@ -2379,16 +2379,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="S13" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="T13" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2396,20 +2396,20 @@
         <v>67</v>
       </c>
       <c r="B14" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D14" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="30">
         <v>12</v>
@@ -2418,7 +2418,7 @@
         <v>92</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>70</v>
@@ -2433,19 +2433,19 @@
         <v>19</v>
       </c>
       <c r="Q14" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="R14" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="R14" s="28" t="s">
-        <v>191</v>
-      </c>
       <c r="S14" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="T14" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="T14" s="28" t="s">
+      <c r="U14" s="37" t="s">
         <v>195</v>
-      </c>
-      <c r="U14" s="37" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2453,20 +2453,20 @@
         <v>67</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D15" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
@@ -2475,7 +2475,7 @@
         <v>92</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" s="43" t="s">
         <v>69</v>
@@ -2495,16 +2495,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S15" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="S15" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="T15" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U15" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2512,20 +2512,20 @@
         <v>67</v>
       </c>
       <c r="B16" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D16" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
@@ -2534,7 +2534,7 @@
         <v>92</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K16" s="43" t="s">
         <v>69</v>
@@ -2554,16 +2554,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S16" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="S16" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="T16" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U16" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2571,20 +2571,20 @@
         <v>67</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D17" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
@@ -2593,7 +2593,7 @@
         <v>92</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K17" s="43" t="s">
         <v>69</v>
@@ -2613,16 +2613,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S17" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="S17" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="T17" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U17" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2630,20 +2630,20 @@
         <v>67</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D18" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -2652,7 +2652,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K18" s="43" t="s">
         <v>69</v>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P18" s="44" t="s">
         <v>19</v>
@@ -2674,16 +2674,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="S18" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="T18" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2691,20 +2691,20 @@
         <v>67</v>
       </c>
       <c r="B19" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D19" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
@@ -2713,7 +2713,7 @@
         <v>92</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K19" s="43" t="s">
         <v>69</v>
@@ -2733,16 +2733,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="S19" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="T19" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2750,22 +2750,22 @@
         <v>67</v>
       </c>
       <c r="B20" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D20" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
@@ -2774,7 +2774,7 @@
         <v>91</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K20" s="43" t="s">
         <v>69</v>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P20" s="44" t="s">
         <v>19</v>
@@ -2796,16 +2796,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S20" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="S20" s="11" t="s">
-        <v>162</v>
-      </c>
       <c r="T20" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2813,22 +2813,22 @@
         <v>67</v>
       </c>
       <c r="B21" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D21" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
@@ -2837,7 +2837,7 @@
         <v>92</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K21" s="43" t="s">
         <v>69</v>
@@ -2857,16 +2857,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="S21" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="T21" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2874,22 +2874,22 @@
         <v>67</v>
       </c>
       <c r="B22" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D22" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
@@ -2898,7 +2898,7 @@
         <v>91</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K22" s="43" t="s">
         <v>69</v>
@@ -2918,16 +2918,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S22" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="S22" s="28" t="s">
-        <v>162</v>
-      </c>
       <c r="T22" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U22" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2935,20 +2935,20 @@
         <v>67</v>
       </c>
       <c r="B23" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D23" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
@@ -2957,7 +2957,7 @@
         <v>92</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K23" s="43" t="s">
         <v>69</v>
@@ -2977,16 +2977,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S23" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="S23" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="T23" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2994,18 +2994,18 @@
         <v>67</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D24" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="38"/>
       <c r="G24" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
@@ -3014,7 +3014,7 @@
         <v>91</v>
       </c>
       <c r="J24" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K24" s="43" t="s">
         <v>69</v>
@@ -3027,7 +3027,7 @@
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P24" s="44" t="s">
         <v>19</v>
@@ -3036,16 +3036,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="S24" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="S24" s="28" t="s">
-        <v>162</v>
-      </c>
       <c r="T24" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U24" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3053,20 +3053,20 @@
         <v>67</v>
       </c>
       <c r="B25" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D25" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
@@ -3075,7 +3075,7 @@
         <v>91</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K25" s="43" t="s">
         <v>70</v>
@@ -3090,19 +3090,19 @@
         <v>19</v>
       </c>
       <c r="Q25" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="R25" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="R25" s="28" t="s">
-        <v>191</v>
-      </c>
       <c r="S25" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T25" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U25" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3110,20 +3110,20 @@
         <v>67</v>
       </c>
       <c r="B26" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D26" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
@@ -3132,7 +3132,7 @@
         <v>92</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K26" s="43" t="s">
         <v>69</v>
@@ -3152,16 +3152,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S26" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="S26" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="T26" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3169,20 +3169,20 @@
         <v>67</v>
       </c>
       <c r="B27" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D27" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
@@ -3191,7 +3191,7 @@
         <v>92</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K27" s="43" t="s">
         <v>69</v>
@@ -3211,16 +3211,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S27" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="S27" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="T27" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3228,20 +3228,20 @@
         <v>67</v>
       </c>
       <c r="B28" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>99</v>
-      </c>
       <c r="D28" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3250,7 +3250,7 @@
         <v>92</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K28" s="43" t="s">
         <v>69</v>
@@ -3263,7 +3263,7 @@
         <v>62</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P28" s="44" t="s">
         <v>19</v>
@@ -3272,16 +3272,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S28" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="S28" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="T28" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3289,10 +3289,10 @@
         <v>67</v>
       </c>
       <c r="B29" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>94</v>
@@ -3300,7 +3300,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="38"/>
       <c r="G29" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
@@ -3309,7 +3309,7 @@
         <v>92</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K29" s="43" t="s">
         <v>70</v>
@@ -3324,19 +3324,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="R29" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="R29" s="28" t="s">
-        <v>191</v>
-      </c>
       <c r="S29" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U29" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3344,10 +3344,10 @@
         <v>67</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>94</v>
@@ -3355,7 +3355,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="38"/>
       <c r="G30" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
@@ -3364,7 +3364,7 @@
         <v>92</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K30" s="43" t="s">
         <v>69</v>
@@ -3384,16 +3384,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S30" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="S30" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="T30" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U30" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3401,10 +3401,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>94</v>
@@ -3412,7 +3412,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="38"/>
       <c r="G31" s="40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
@@ -3421,7 +3421,7 @@
         <v>92</v>
       </c>
       <c r="J31" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K31" s="43" t="s">
         <v>69</v>
@@ -3441,16 +3441,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="S31" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="S31" s="28" t="s">
-        <v>174</v>
-      </c>
       <c r="T31" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U31" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3458,10 +3458,10 @@
         <v>67</v>
       </c>
       <c r="B32" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>95</v>
@@ -3469,7 +3469,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="38"/>
       <c r="G32" s="40" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
@@ -3478,13 +3478,13 @@
         <v>92</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K32" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -3503,10 +3503,10 @@
         <v>67</v>
       </c>
       <c r="B33" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>95</v>
@@ -3514,7 +3514,7 @@
       <c r="E33" s="29"/>
       <c r="F33" s="38"/>
       <c r="G33" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="30">
         <v>31</v>
@@ -3523,7 +3523,7 @@
         <v>92</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K33" s="43" t="s">
         <v>69</v>
@@ -3543,16 +3543,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S33" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="S33" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="T33" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3560,10 +3560,10 @@
         <v>67</v>
       </c>
       <c r="B34" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="32" t="s">
         <v>98</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>99</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>95</v>
@@ -3571,7 +3571,7 @@
       <c r="E34" s="29"/>
       <c r="F34" s="38"/>
       <c r="G34" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H34" s="30">
         <v>32</v>
@@ -3580,7 +3580,7 @@
         <v>92</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K34" s="43" t="s">
         <v>69</v>
@@ -3600,16 +3600,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S34" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="S34" s="11" t="s">
-        <v>174</v>
-      </c>
       <c r="T34" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4324,7 +4324,7 @@
       <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="75" t="s">
         <v>90</v>
       </c>
       <c r="H1" s="65" t="s">
@@ -4338,8 +4338,8 @@
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11760"/>
   </bookViews>
@@ -362,9 +367,6 @@
     <t>Actividad para repasar algunos aspectos relacionados con la variabilidad genética</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: la teoría cromosómica de la herencia</t>
-  </si>
-  <si>
     <t>Actividad acerca de la teoría cromosómica de la herencia</t>
   </si>
   <si>
@@ -383,9 +385,6 @@
     <t>Interactivo que trata sobre la combinación genética que determina la herencia del sexo y la herencia ligada al sexo</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: los cromosomas sexuales</t>
-  </si>
-  <si>
     <t>Preguntar sobre la determinación del sexo y herencia ligada al sexo. Y preguntar por el daltonismo ("si en una parjea el hombre sufre de daltonismo y la mujer… "cosas así, para evaluar si se entendió bien la herencia de esa enfermedad)</t>
   </si>
   <si>
@@ -449,9 +448,6 @@
     <t>Las mutaciones: posible causa de enfermedad</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: relaciona las enfermedades genéticas y las mutaciones</t>
-  </si>
-  <si>
     <t>Actividad que permite establecer relaciones entre las enfermedades genéticas y las mutaciones</t>
   </si>
   <si>
@@ -473,9 +469,6 @@
     <t>Interactivo que presenta las técnicas de diagnóstico prenatal</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: el diagnóstico genético</t>
-  </si>
-  <si>
     <t>Actividad para consolidar el conocimiento acerca de las pruebas de diagnóstico genético y sus características</t>
   </si>
   <si>
@@ -644,9 +637,6 @@
     <t>Reconoce diferentes tipos de herencia e interacciones genéticas</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: otros tipos de herencia</t>
-  </si>
-  <si>
     <t>Actividad que trata sobre otros tipos de herencia además de la herencia mendeliana clásica</t>
   </si>
   <si>
@@ -699,6 +689,21 @@
   </si>
   <si>
     <t>Mapa conceptual</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La teoría cromosómica de la herencia</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los cromosomas sexuales</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Otros tipos de herencia</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Relaciona las enfermedades genéticas y las mutaciones</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El diagnóstico genético</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1616,8 +1621,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="H1" sqref="H1"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,16 +1796,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1846,16 +1855,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="57" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S4" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="T4" s="57" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="U4" s="58" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1876,7 +1885,7 @@
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="62" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1905,16 +1914,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1935,7 +1944,7 @@
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="40" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -1966,16 +1975,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1996,7 +2005,7 @@
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
@@ -2020,19 +2029,19 @@
         <v>19</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T7" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="U7" s="36" t="s">
         <v>188</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2053,7 +2062,7 @@
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="40" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="H8" s="30">
         <v>6</v>
@@ -2062,7 +2071,7 @@
         <v>92</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K8" s="43" t="s">
         <v>69</v>
@@ -2075,7 +2084,7 @@
         <v>62</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P8" s="44" t="s">
         <v>19</v>
@@ -2084,16 +2093,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="T8" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="S8" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>176</v>
-      </c>
       <c r="U8" s="36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2107,14 +2116,14 @@
         <v>98</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
@@ -2123,7 +2132,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K9" s="43" t="s">
         <v>70</v>
@@ -2138,19 +2147,19 @@
         <v>19</v>
       </c>
       <c r="Q9" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="S9" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="R9" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>193</v>
-      </c>
       <c r="T9" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2164,14 +2173,14 @@
         <v>98</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2180,7 +2189,7 @@
         <v>92</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K10" s="43" t="s">
         <v>69</v>
@@ -2200,16 +2209,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="U10" s="36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2223,14 +2232,14 @@
         <v>98</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="40" t="s">
-        <v>120</v>
+        <v>222</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
@@ -2239,7 +2248,7 @@
         <v>92</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K11" s="43" t="s">
         <v>69</v>
@@ -2252,7 +2261,7 @@
         <v>62</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P11" s="44" t="s">
         <v>19</v>
@@ -2261,16 +2270,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S11" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="T11" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="T11" s="45" t="s">
-        <v>177</v>
-      </c>
       <c r="U11" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2284,12 +2293,12 @@
         <v>98</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="38"/>
       <c r="G12" s="40" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
@@ -2298,7 +2307,7 @@
         <v>91</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K12" s="43" t="s">
         <v>69</v>
@@ -2311,7 +2320,7 @@
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P12" s="44" t="s">
         <v>19</v>
@@ -2320,16 +2329,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="T12" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="S12" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>164</v>
-      </c>
       <c r="U12" s="36" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2343,12 +2352,12 @@
         <v>98</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="38"/>
       <c r="G13" s="40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H13" s="30">
         <v>11</v>
@@ -2357,7 +2366,7 @@
         <v>91</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="43" t="s">
         <v>69</v>
@@ -2370,7 +2379,7 @@
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P13" s="44" t="s">
         <v>19</v>
@@ -2379,16 +2388,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2402,14 +2411,14 @@
         <v>98</v>
       </c>
       <c r="D14" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H14" s="30">
         <v>12</v>
@@ -2418,7 +2427,7 @@
         <v>92</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>70</v>
@@ -2433,19 +2442,19 @@
         <v>19</v>
       </c>
       <c r="Q14" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="S14" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="T14" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="S14" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="T14" s="28" t="s">
-        <v>194</v>
-      </c>
       <c r="U14" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2459,14 +2468,14 @@
         <v>98</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="40" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
@@ -2475,7 +2484,7 @@
         <v>92</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K15" s="43" t="s">
         <v>69</v>
@@ -2495,16 +2504,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="U15" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2518,14 +2527,14 @@
         <v>98</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
@@ -2534,7 +2543,7 @@
         <v>92</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K16" s="43" t="s">
         <v>69</v>
@@ -2554,16 +2563,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S16" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T16" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="U16" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2577,14 +2586,14 @@
         <v>98</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="40" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
@@ -2593,7 +2602,7 @@
         <v>92</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K17" s="43" t="s">
         <v>69</v>
@@ -2613,16 +2622,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T17" s="28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U17" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2636,14 +2645,14 @@
         <v>98</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="40" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -2652,7 +2661,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K18" s="43" t="s">
         <v>69</v>
@@ -2665,7 +2674,7 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P18" s="44" t="s">
         <v>19</v>
@@ -2674,16 +2683,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2697,14 +2706,14 @@
         <v>98</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
@@ -2713,7 +2722,7 @@
         <v>92</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K19" s="43" t="s">
         <v>69</v>
@@ -2733,16 +2742,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2756,16 +2765,16 @@
         <v>98</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
@@ -2774,7 +2783,7 @@
         <v>91</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K20" s="43" t="s">
         <v>69</v>
@@ -2787,7 +2796,7 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P20" s="44" t="s">
         <v>19</v>
@@ -2796,16 +2805,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2819,16 +2828,16 @@
         <v>98</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
@@ -2837,7 +2846,7 @@
         <v>92</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K21" s="43" t="s">
         <v>69</v>
@@ -2857,16 +2866,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2880,16 +2889,16 @@
         <v>98</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
@@ -2898,7 +2907,7 @@
         <v>91</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K22" s="43" t="s">
         <v>69</v>
@@ -2918,16 +2927,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S22" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="T22" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="T22" s="28" t="s">
-        <v>165</v>
-      </c>
       <c r="U22" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2941,14 +2950,14 @@
         <v>98</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="40" t="s">
-        <v>142</v>
+        <v>224</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
@@ -2957,7 +2966,7 @@
         <v>92</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K23" s="43" t="s">
         <v>69</v>
@@ -2977,16 +2986,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3000,12 +3009,12 @@
         <v>98</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="38"/>
       <c r="G24" s="40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
@@ -3014,7 +3023,7 @@
         <v>91</v>
       </c>
       <c r="J24" s="41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K24" s="43" t="s">
         <v>69</v>
@@ -3027,7 +3036,7 @@
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P24" s="44" t="s">
         <v>19</v>
@@ -3036,16 +3045,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="T24" s="28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="U24" s="37" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3059,14 +3068,14 @@
         <v>98</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
@@ -3075,7 +3084,7 @@
         <v>91</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K25" s="43" t="s">
         <v>70</v>
@@ -3090,19 +3099,19 @@
         <v>19</v>
       </c>
       <c r="Q25" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="S25" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="R25" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="S25" s="28" t="s">
-        <v>193</v>
-      </c>
       <c r="T25" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="U25" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3116,14 +3125,14 @@
         <v>98</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="40" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
@@ -3132,7 +3141,7 @@
         <v>92</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K26" s="43" t="s">
         <v>69</v>
@@ -3152,16 +3161,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3175,14 +3184,14 @@
         <v>98</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="41" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
@@ -3191,7 +3200,7 @@
         <v>92</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K27" s="43" t="s">
         <v>69</v>
@@ -3211,16 +3220,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3234,14 +3243,14 @@
         <v>98</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="40" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3250,7 +3259,7 @@
         <v>92</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K28" s="43" t="s">
         <v>69</v>
@@ -3263,7 +3272,7 @@
         <v>62</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P28" s="44" t="s">
         <v>19</v>
@@ -3272,16 +3281,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3300,7 +3309,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="38"/>
       <c r="G29" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
@@ -3309,7 +3318,7 @@
         <v>92</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K29" s="43" t="s">
         <v>70</v>
@@ -3324,19 +3333,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="S29" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="R29" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="S29" s="28" t="s">
+      <c r="T29" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="T29" s="28" t="s">
-        <v>197</v>
-      </c>
       <c r="U29" s="37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3355,7 +3364,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="38"/>
       <c r="G30" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
@@ -3364,7 +3373,7 @@
         <v>92</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K30" s="43" t="s">
         <v>69</v>
@@ -3384,16 +3393,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S30" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="U30" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3412,7 +3421,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="38"/>
       <c r="G31" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
@@ -3421,7 +3430,7 @@
         <v>92</v>
       </c>
       <c r="J31" s="41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K31" s="43" t="s">
         <v>69</v>
@@ -3441,16 +3450,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S31" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T31" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="U31" s="37" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3469,7 +3478,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="38"/>
       <c r="G32" s="40" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
@@ -3478,13 +3487,13 @@
         <v>92</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K32" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -3523,7 +3532,7 @@
         <v>92</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K33" s="43" t="s">
         <v>69</v>
@@ -3543,16 +3552,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T33" s="45" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3571,7 +3580,7 @@
       <c r="E34" s="29"/>
       <c r="F34" s="38"/>
       <c r="G34" s="40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H34" s="30">
         <v>32</v>
@@ -3580,7 +3589,7 @@
         <v>92</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K34" s="43" t="s">
         <v>69</v>
@@ -3600,20 +3609,25 @@
         <v>6</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3629,11 +3643,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion07\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11760"/>
   </bookViews>
@@ -1611,7 +1606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1621,12 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="H1" sqref="H1"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="226">
   <si>
     <t>Asignatura</t>
   </si>
@@ -428,12 +428,6 @@
     <t>Interactivo que trata sobre mutaciones y enfermedades genéticas</t>
   </si>
   <si>
-    <t xml:space="preserve">Primera imagen del menú es tipos de mutación, que lleva las imágenes de mutación: somática, germinal, génica, cromosómica, genómica. El entrar en cada imagen se explica cada una. La seguna imagen es causa de la mutación, que lleva a espontánea (errores al replicar el ADN) e inducida (por agentes físicos, químicos o biológicos). La tercera imagen es casos graves o algo así, y de divide en alelos letales (hablar de fibrosis quistica), y cáncer (que no siempre es letal). </t>
-  </si>
-  <si>
-    <t>Las enfermedades genéticas</t>
-  </si>
-  <si>
     <t>Interactivo que presenta diferentes enfermedades genéticas hereditarias y no hereditarias</t>
   </si>
   <si>
@@ -617,9 +611,6 @@
     <t>El ligamiento y el entrecruzamiento</t>
   </si>
   <si>
-    <t xml:space="preserve">La herencia ligada al sexo </t>
-  </si>
-  <si>
     <t>Análisis de pedigríes humanos</t>
   </si>
   <si>
@@ -665,9 +656,6 @@
     <t>Actividad para reforzar lo aprendido sobre la herencia ligada al sexo</t>
   </si>
   <si>
-    <t>Las diferentes formas de expresión de genes</t>
-  </si>
-  <si>
     <t>Recurso M1B-02</t>
   </si>
   <si>
@@ -699,6 +687,18 @@
   </si>
   <si>
     <t>Refuerza tu aprendizaje: El diagnóstico genético</t>
+  </si>
+  <si>
+    <t>Las diferentes formas de expresión de los genes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primera imagen del menú es "tipos de mutación", y lleva a imágenes que representan distontos tipos de mutación: somática, germinal, génica, cromosómica, genómica. El entrar en cada imagen se explica cada una. La seguna imagen es causa de la mutación, que lleva a espontánea (errores al replicar el ADN) e inducida (por agentes físicos, químicos o biológicos). La tercera imagen es casos graves o algo así, y de divide en alelos letales (hablar de fibrosis quistica), y cáncer (que no siempre es letal). </t>
+  </si>
+  <si>
+    <t>Las enfermedades genéticas hereditarias y no hereditarias</t>
+  </si>
+  <si>
+    <t>La herencia del sexo y de los caracteres que están en los cromosomas sexuales</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1617,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,16 +1787,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="T3" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="U3" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="T3" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1846,16 +1846,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S4" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="U4" s="58" t="s">
         <v>157</v>
-      </c>
-      <c r="T4" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="U4" s="58" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="62" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1905,16 +1905,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="U5" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -1966,16 +1966,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T6" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
@@ -2020,19 +2020,19 @@
         <v>19</v>
       </c>
       <c r="Q7" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="R7" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="T7" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="U7" s="36" t="s">
         <v>186</v>
-      </c>
-      <c r="S7" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="T7" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H8" s="30">
         <v>6</v>
@@ -2084,16 +2084,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S8" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="U8" s="36" t="s">
         <v>169</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="40" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
@@ -2138,19 +2138,19 @@
         <v>19</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R9" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S9" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T9" s="27" t="s">
         <v>116</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="40" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2180,7 +2180,7 @@
         <v>92</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K10" s="43" t="s">
         <v>69</v>
@@ -2200,16 +2200,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S10" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="U10" s="36" t="s">
         <v>169</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
@@ -2261,16 +2261,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S11" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T11" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="T11" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2289,7 +2289,7 @@
       <c r="E12" s="29"/>
       <c r="F12" s="38"/>
       <c r="G12" s="40" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
@@ -2320,16 +2320,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S12" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="U12" s="36" t="s">
         <v>157</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2348,7 +2348,7 @@
       <c r="E13" s="29"/>
       <c r="F13" s="38"/>
       <c r="G13" s="40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H13" s="30">
         <v>11</v>
@@ -2379,16 +2379,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S13" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2433,19 +2433,19 @@
         <v>19</v>
       </c>
       <c r="Q14" s="48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S14" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="U14" s="37" t="s">
         <v>189</v>
-      </c>
-      <c r="T14" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="U14" s="37" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2462,11 +2462,11 @@
         <v>122</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
@@ -2495,16 +2495,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S15" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="U15" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="T15" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="U15" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2521,11 +2521,11 @@
         <v>122</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
@@ -2554,16 +2554,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S16" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="U16" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="T16" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="U16" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="40" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
@@ -2593,7 +2593,7 @@
         <v>92</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K17" s="43" t="s">
         <v>69</v>
@@ -2613,16 +2613,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S17" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="U17" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="T17" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="U17" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2639,11 +2639,11 @@
         <v>129</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -2652,7 +2652,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K18" s="43" t="s">
         <v>69</v>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P18" s="44" t="s">
         <v>19</v>
@@ -2674,16 +2674,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S18" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2700,7 +2700,7 @@
         <v>129</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="40" t="s">
@@ -2733,16 +2733,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S19" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2759,11 +2759,9 @@
         <v>129</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F20" s="38"/>
       <c r="G20" s="40" t="s">
         <v>133</v>
       </c>
@@ -2787,7 +2785,7 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="8" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="P20" s="44" t="s">
         <v>19</v>
@@ -2796,16 +2794,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2822,13 +2820,11 @@
         <v>129</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F21" s="38"/>
       <c r="G21" s="40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
@@ -2837,7 +2833,7 @@
         <v>92</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K21" s="43" t="s">
         <v>69</v>
@@ -2857,16 +2853,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S21" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2883,13 +2879,13 @@
         <v>129</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
@@ -2898,7 +2894,7 @@
         <v>91</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K22" s="43" t="s">
         <v>69</v>
@@ -2918,16 +2914,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S22" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="U22" s="37" t="s">
         <v>157</v>
-      </c>
-      <c r="T22" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="U22" s="37" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2948,7 +2944,7 @@
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="40" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
@@ -2957,7 +2953,7 @@
         <v>92</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K23" s="43" t="s">
         <v>69</v>
@@ -2977,16 +2973,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S23" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3000,12 +2996,12 @@
         <v>98</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="38"/>
       <c r="G24" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
@@ -3014,7 +3010,7 @@
         <v>91</v>
       </c>
       <c r="J24" s="41" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K24" s="43" t="s">
         <v>69</v>
@@ -3027,7 +3023,7 @@
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P24" s="44" t="s">
         <v>19</v>
@@ -3036,16 +3032,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S24" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="U24" s="37" t="s">
         <v>157</v>
-      </c>
-      <c r="T24" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="U24" s="37" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3059,14 +3055,14 @@
         <v>98</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
@@ -3075,7 +3071,7 @@
         <v>91</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K25" s="43" t="s">
         <v>70</v>
@@ -3090,19 +3086,19 @@
         <v>19</v>
       </c>
       <c r="Q25" s="48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R25" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S25" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="U25" s="37" t="s">
         <v>189</v>
-      </c>
-      <c r="T25" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="U25" s="37" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3116,14 +3112,14 @@
         <v>98</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="40" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
@@ -3132,7 +3128,7 @@
         <v>92</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K26" s="43" t="s">
         <v>69</v>
@@ -3152,16 +3148,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S26" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="U26" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="T26" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="U26" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3175,14 +3171,14 @@
         <v>98</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="41" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
@@ -3191,7 +3187,7 @@
         <v>92</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K27" s="43" t="s">
         <v>69</v>
@@ -3211,16 +3207,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S27" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="U27" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="T27" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="U27" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3234,14 +3230,14 @@
         <v>98</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3250,7 +3246,7 @@
         <v>92</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K28" s="43" t="s">
         <v>69</v>
@@ -3263,7 +3259,7 @@
         <v>62</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P28" s="44" t="s">
         <v>19</v>
@@ -3272,16 +3268,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S28" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="T28" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="U28" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="T28" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="U28" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3300,7 +3296,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="38"/>
       <c r="G29" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
@@ -3309,7 +3305,7 @@
         <v>92</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K29" s="43" t="s">
         <v>70</v>
@@ -3324,19 +3320,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="R29" s="28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S29" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="T29" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="U29" s="37" t="s">
         <v>189</v>
-      </c>
-      <c r="T29" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="U29" s="37" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3355,7 +3351,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="38"/>
       <c r="G30" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
@@ -3364,7 +3360,7 @@
         <v>92</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K30" s="43" t="s">
         <v>69</v>
@@ -3384,16 +3380,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S30" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="U30" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="T30" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="U30" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3412,7 +3408,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="38"/>
       <c r="G31" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
@@ -3421,7 +3417,7 @@
         <v>92</v>
       </c>
       <c r="J31" s="41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K31" s="43" t="s">
         <v>69</v>
@@ -3441,16 +3437,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S31" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="T31" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="U31" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="T31" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="U31" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3469,7 +3465,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="38"/>
       <c r="G32" s="40" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
@@ -3478,13 +3474,13 @@
         <v>92</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K32" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -3523,7 +3519,7 @@
         <v>92</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K33" s="43" t="s">
         <v>69</v>
@@ -3543,16 +3539,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S33" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T33" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="T33" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3571,7 +3567,7 @@
       <c r="E34" s="29"/>
       <c r="F34" s="38"/>
       <c r="G34" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H34" s="30">
         <v>32</v>
@@ -3580,7 +3576,7 @@
         <v>92</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K34" s="43" t="s">
         <v>69</v>
@@ -3600,16 +3596,16 @@
         <v>6</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="S34" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="T34" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="T34" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -593,9 +593,6 @@
     <t>BG_10_07</t>
   </si>
   <si>
-    <t>Recurso M3B-01</t>
-  </si>
-  <si>
     <t>Competencias: investigación de las enfermedades genéticas</t>
   </si>
   <si>
@@ -699,6 +696,9 @@
   </si>
   <si>
     <t>La herencia del sexo y de los caracteres que están en los cromosomas sexuales</t>
+  </si>
+  <si>
+    <t>Recurso M1C-01</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1617,7 +1617,7 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H8" s="30">
         <v>6</v>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
@@ -2180,7 +2180,7 @@
         <v>92</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K10" s="43" t="s">
         <v>69</v>
@@ -2190,7 +2190,7 @@
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="44" t="s">
@@ -2206,7 +2206,7 @@
         <v>167</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="U10" s="36" t="s">
         <v>169</v>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
@@ -2289,7 +2289,7 @@
       <c r="E12" s="29"/>
       <c r="F12" s="38"/>
       <c r="G12" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
@@ -2348,7 +2348,7 @@
       <c r="E13" s="29"/>
       <c r="F13" s="38"/>
       <c r="G13" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H13" s="30">
         <v>11</v>
@@ -2462,11 +2462,11 @@
         <v>122</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
@@ -2521,11 +2521,11 @@
         <v>122</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
@@ -2593,7 +2593,7 @@
         <v>92</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K17" s="43" t="s">
         <v>69</v>
@@ -2639,11 +2639,11 @@
         <v>129</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -2652,7 +2652,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K18" s="43" t="s">
         <v>69</v>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P18" s="44" t="s">
         <v>19</v>
@@ -2700,7 +2700,7 @@
         <v>129</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="40" t="s">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P20" s="44" t="s">
         <v>19</v>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
@@ -2833,7 +2833,7 @@
         <v>92</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K21" s="43" t="s">
         <v>69</v>
@@ -2885,7 +2885,7 @@
         <v>136</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
@@ -3187,7 +3187,7 @@
         <v>92</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K27" s="43" t="s">
         <v>69</v>
@@ -3213,7 +3213,7 @@
         <v>167</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U27" s="37" t="s">
         <v>169</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3274,7 +3274,7 @@
         <v>167</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U28" s="37" t="s">
         <v>169</v>
@@ -3305,7 +3305,7 @@
         <v>92</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K29" s="43" t="s">
         <v>70</v>
@@ -3329,7 +3329,7 @@
         <v>187</v>
       </c>
       <c r="T29" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U29" s="37" t="s">
         <v>189</v>
@@ -3465,7 +3465,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="38"/>
       <c r="G32" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
@@ -3474,13 +3474,13 @@
         <v>92</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K32" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -3567,7 +3567,7 @@
       <c r="E34" s="29"/>
       <c r="F34" s="38"/>
       <c r="G34" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H34" s="30">
         <v>32</v>
@@ -3576,7 +3576,7 @@
         <v>92</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K34" s="43" t="s">
         <v>69</v>
@@ -3610,11 +3610,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3630,6 +3625,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="ESCALETA" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="227">
   <si>
     <t>Asignatura</t>
   </si>
@@ -699,6 +699,9 @@
   </si>
   <si>
     <t>Recurso M1C-01</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-02</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1616,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="L28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,14 +1637,14 @@
     <col min="10" max="10" width="129.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="14" style="25" customWidth="1"/>
-    <col min="15" max="15" width="90.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="24" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="25" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="26" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="24" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="10" customWidth="1"/>
     <col min="18" max="18" width="11.140625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="44.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="60.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="37.85546875" style="10" customWidth="1"/>
     <col min="21" max="21" width="18.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="10"/>
   </cols>
@@ -3443,7 +3446,7 @@
         <v>167</v>
       </c>
       <c r="T31" s="28" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="U31" s="37" t="s">
         <v>169</v>
@@ -3610,6 +3613,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3625,11 +3633,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9240"/>
   </bookViews>
@@ -11,6 +16,9 @@
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ESCALETA!$A$1:$U$34</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1609,7 +1617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1619,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3612,12 +3620,10 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U34">
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3633,6 +3639,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado08\guion07\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ESCALETA" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="VER" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ESCALETA!$A$1:$U$34</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="226">
   <si>
     <t>Asignatura</t>
   </si>
@@ -340,9 +332,6 @@
     <t>La teoría cromosómica de la herencia: Mendel, Sutton y Boveri</t>
   </si>
   <si>
-    <t>Actividad para repasar los aportes hechos a la genética por Mendel, Sutton y Boveri</t>
-  </si>
-  <si>
     <t>Hay una ficha para cada investigador. En la parte de Mendel se deben explicar sus leyes de la herencia.</t>
   </si>
   <si>
@@ -352,9 +341,6 @@
     <t>Los aportes de Morgan a la genética</t>
   </si>
   <si>
-    <t>Interactivo que expone la teoría cromosómica de la herencia a partir de los trabajos de Mendel, Sutton y Boveri. Se deben mencionar algunos datos históricos (con qué organismo trabajaron, cuándo, en dónde), y se deben explicar las leyes de Mendel, recordando que esto es algo que los estudiantes ya vieron, por lo que sólo se necesita hacer el recordatorio.</t>
-  </si>
-  <si>
     <t>Interactivo que presenta los experimentos y aportes de Thomas Morgan</t>
   </si>
   <si>
@@ -364,9 +350,6 @@
     <t>Dos imágenes de menú, una para ligamiento y otra para entrecruzamiento. En la explicación de este último se debe resaltar la influencia de este proceso en la variabilidad genpetica, y recordar por qué esta es importante (los estudiantes ya lo deben haber visto)</t>
   </si>
   <si>
-    <t xml:space="preserve">Interactivo que explica los fenómenos de ligamiento y entrecruzamiento. Explicar que el entrecruzamiento es una forma de recombinación genética (y explicar qué es recombinación), y qué es el quiasma. </t>
-  </si>
-  <si>
     <t>Actividad para repasar algunos aspectos relacionados con la variabilidad genética</t>
   </si>
   <si>
@@ -421,9 +404,6 @@
     <t xml:space="preserve">Las enfermedades genéticas </t>
   </si>
   <si>
-    <t xml:space="preserve">Se hacen árboles genealógicos que muestran distintas condiciones con diferentes patrones de herencia. Al comienzo sale una parte del árbol, y al avanzar en el recurso se va revelando el resto. Hay un formato hecho para esto, que puede adaptarse; preguntarlo. </t>
-  </si>
-  <si>
     <t>Identifica los tipos de enfermedades genéticas</t>
   </si>
   <si>
@@ -634,9 +614,6 @@
     <t>Interactivo que presenta los diferentes tipos de enfermedades genéticas</t>
   </si>
   <si>
-    <t>Clasificación de las enfermedades genéticas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exponer las enfermedades monogénicas, multifactoriales, cromosómicas, mitocondriales. Se debe hacer una ficha para diferenciar enfermedades genéticas hereditarias y no hereditarias; puede ser la última, y allí se explixca que en las otras categorías puede haber enfermedades que se hereden y otras que no. Por ejemplo, las monogénicas pueden ser mutaciones en el cromosoma X o en un cromosoma somático (no hay que olvidar que no se conocen enfermedades ligadas a Y). Esta ficha debe ser diferente de alguna forma, para que esta separación no parezca de la misma categoría que las anteriores. Se puede, por ejemplo, poner como título de las demás fichas una palabra o frase (Enfermedades monogénicas, p.e.), y en la última una pregunta: "¿Son hereditarias o no?", o alguna cosa así.  </t>
   </si>
   <si>
@@ -655,9 +632,6 @@
     <t>MAPA CONCEPTUAL</t>
   </si>
   <si>
-    <t>Repasa los aportes a la genética de Mendel, Sutton y Boveri</t>
-  </si>
-  <si>
     <t>Actividad para reforzar lo aprendido sobre la herencia ligada al sexo</t>
   </si>
   <si>
@@ -694,22 +668,37 @@
     <t>Refuerza tu aprendizaje: El diagnóstico genético</t>
   </si>
   <si>
-    <t>Las diferentes formas de expresión de los genes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primera imagen del menú es "tipos de mutación", y lleva a imágenes que representan distontos tipos de mutación: somática, germinal, génica, cromosómica, genómica. El entrar en cada imagen se explica cada una. La seguna imagen es causa de la mutación, que lleva a espontánea (errores al replicar el ADN) e inducida (por agentes físicos, químicos o biológicos). La tercera imagen es casos graves o algo así, y de divide en alelos letales (hablar de fibrosis quistica), y cáncer (que no siempre es letal). </t>
   </si>
   <si>
     <t>Las enfermedades genéticas hereditarias y no hereditarias</t>
   </si>
   <si>
-    <t>La herencia del sexo y de los caracteres que están en los cromosomas sexuales</t>
-  </si>
-  <si>
     <t>Recurso M1C-01</t>
   </si>
   <si>
-    <t>Recurso M102AB-02</t>
+    <t>Se hacen árboles genealógicos que muestran distintas condiciones con diferentes patrones de herencia. Al comienzo sale una parte del árbol, y al avanzar en el recurso se va revelando el resto. Hay un formato hecho para esto, que puede adaptarse; preguntarlo.</t>
+  </si>
+  <si>
+    <t>Las formas de herencia y expresión de los genes</t>
+  </si>
+  <si>
+    <t>Los descubrimientos de Mendel, Sutton, Boveri y Morgan</t>
+  </si>
+  <si>
+    <t>Actividad para repasar los aportes hechos a la genética por Mendel, Sutton, Boveri y Morgan</t>
+  </si>
+  <si>
+    <t>La herencia del sexo y de los caracteres en los cromosomas sexuales</t>
+  </si>
+  <si>
+    <t>Interactivo que expone la teoría cromosómica de la herencia a partir de los trabajos de Mendel, Sutton y Boveri.</t>
+  </si>
+  <si>
+    <t>Interactivo que explica los fenómenos de ligamiento y entrecruzamiento.</t>
+  </si>
+  <si>
+    <t>La clasificación de las enfermedades genéticas</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1627,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,14 +1634,14 @@
     <col min="10" max="10" width="129.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="25" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" style="26" customWidth="1"/>
-    <col min="16" max="16" width="5.85546875" style="24" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="14" style="25" customWidth="1"/>
+    <col min="15" max="15" width="90.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="24" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="10" customWidth="1"/>
     <col min="18" max="18" width="11.140625" style="10" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="10" customWidth="1"/>
-    <col min="20" max="20" width="37.85546875" style="10" customWidth="1"/>
+    <col min="19" max="19" width="44.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="60.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="10"/>
   </cols>
@@ -1776,7 +1765,7 @@
         <v>91</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>69</v>
@@ -1789,7 +1778,7 @@
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P3" s="46" t="s">
         <v>19</v>
@@ -1798,16 +1787,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1824,11 +1813,11 @@
         <v>99</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="30">
         <v>2</v>
@@ -1837,7 +1826,7 @@
         <v>91</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K4" s="52" t="s">
         <v>69</v>
@@ -1857,16 +1846,16 @@
         <v>6</v>
       </c>
       <c r="R4" s="57" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S4" s="57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T4" s="57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="U4" s="58" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1883,11 +1872,11 @@
         <v>99</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="62" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H5" s="30">
         <v>3</v>
@@ -1896,7 +1885,7 @@
         <v>92</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="K5" s="43" t="s">
         <v>69</v>
@@ -1916,16 +1905,16 @@
         <v>6</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1942,11 +1931,11 @@
         <v>99</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="40" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H6" s="30">
         <v>4</v>
@@ -1955,7 +1944,7 @@
         <v>91</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>69</v>
@@ -1968,7 +1957,7 @@
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P6" s="44" t="s">
         <v>19</v>
@@ -1977,16 +1966,16 @@
         <v>6</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2003,11 +1992,11 @@
         <v>99</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
@@ -2016,7 +2005,7 @@
         <v>92</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K7" s="43" t="s">
         <v>70</v>
@@ -2031,19 +2020,19 @@
         <v>19</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="S7" s="27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="T7" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="U7" s="36" t="s">
         <v>182</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2064,7 +2053,7 @@
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H8" s="30">
         <v>6</v>
@@ -2073,7 +2062,7 @@
         <v>92</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K8" s="43" t="s">
         <v>69</v>
@@ -2086,7 +2075,7 @@
         <v>62</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P8" s="44" t="s">
         <v>19</v>
@@ -2095,16 +2084,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="S8" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="T8" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="S8" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="T8" s="27" t="s">
-        <v>170</v>
-      </c>
       <c r="U8" s="36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2118,14 +2107,14 @@
         <v>98</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
@@ -2134,7 +2123,7 @@
         <v>91</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K9" s="43" t="s">
         <v>70</v>
@@ -2149,19 +2138,19 @@
         <v>19</v>
       </c>
       <c r="Q9" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="S9" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="R9" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="S9" s="27" t="s">
-        <v>187</v>
-      </c>
       <c r="T9" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="U9" s="36" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2175,14 +2164,14 @@
         <v>98</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H10" s="30">
         <v>8</v>
@@ -2191,7 +2180,7 @@
         <v>92</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K10" s="43" t="s">
         <v>69</v>
@@ -2211,16 +2200,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S10" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T10" s="27" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="U10" s="36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2234,14 +2223,14 @@
         <v>98</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="40" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H11" s="30">
         <v>9</v>
@@ -2250,7 +2239,7 @@
         <v>92</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K11" s="43" t="s">
         <v>69</v>
@@ -2263,7 +2252,7 @@
         <v>62</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P11" s="44" t="s">
         <v>19</v>
@@ -2272,16 +2261,16 @@
         <v>6</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S11" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="T11" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="T11" s="45" t="s">
-        <v>171</v>
-      </c>
       <c r="U11" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2295,12 +2284,12 @@
         <v>98</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="38"/>
       <c r="G12" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H12" s="30">
         <v>10</v>
@@ -2309,7 +2298,7 @@
         <v>91</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K12" s="43" t="s">
         <v>69</v>
@@ -2322,7 +2311,7 @@
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P12" s="44" t="s">
         <v>19</v>
@@ -2331,16 +2320,16 @@
         <v>6</v>
       </c>
       <c r="R12" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="T12" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="S12" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="T12" s="27" t="s">
-        <v>158</v>
-      </c>
       <c r="U12" s="36" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2354,12 +2343,12 @@
         <v>98</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="38"/>
       <c r="G13" s="40" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H13" s="30">
         <v>11</v>
@@ -2368,7 +2357,7 @@
         <v>91</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K13" s="43" t="s">
         <v>69</v>
@@ -2381,7 +2370,7 @@
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="8" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="P13" s="44" t="s">
         <v>19</v>
@@ -2390,16 +2379,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2413,14 +2402,14 @@
         <v>98</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H14" s="30">
         <v>12</v>
@@ -2429,7 +2418,7 @@
         <v>92</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>70</v>
@@ -2444,19 +2433,19 @@
         <v>19</v>
       </c>
       <c r="Q14" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="S14" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="R14" s="28" t="s">
+      <c r="T14" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="S14" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="T14" s="28" t="s">
-        <v>188</v>
-      </c>
       <c r="U14" s="37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2470,14 +2459,14 @@
         <v>98</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H15" s="30">
         <v>13</v>
@@ -2486,7 +2475,7 @@
         <v>92</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K15" s="43" t="s">
         <v>69</v>
@@ -2506,16 +2495,16 @@
         <v>6</v>
       </c>
       <c r="R15" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T15" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="U15" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2529,14 +2518,14 @@
         <v>98</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H16" s="30">
         <v>14</v>
@@ -2545,7 +2534,7 @@
         <v>92</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K16" s="43" t="s">
         <v>69</v>
@@ -2565,16 +2554,16 @@
         <v>6</v>
       </c>
       <c r="R16" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S16" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T16" s="28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="U16" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2588,14 +2577,14 @@
         <v>98</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="40" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H17" s="30">
         <v>15</v>
@@ -2604,7 +2593,7 @@
         <v>92</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K17" s="43" t="s">
         <v>69</v>
@@ -2624,16 +2613,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T17" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="U17" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2647,14 +2636,14 @@
         <v>98</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="40" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -2663,7 +2652,7 @@
         <v>91</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K18" s="43" t="s">
         <v>69</v>
@@ -2676,7 +2665,7 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="P18" s="44" t="s">
         <v>19</v>
@@ -2685,16 +2674,16 @@
         <v>6</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2708,14 +2697,14 @@
         <v>98</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H19" s="30">
         <v>17</v>
@@ -2724,7 +2713,7 @@
         <v>92</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K19" s="43" t="s">
         <v>69</v>
@@ -2744,16 +2733,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2767,14 +2756,14 @@
         <v>98</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H20" s="30">
         <v>18</v>
@@ -2783,7 +2772,7 @@
         <v>91</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K20" s="43" t="s">
         <v>69</v>
@@ -2796,7 +2785,7 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="8" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="P20" s="44" t="s">
         <v>19</v>
@@ -2805,16 +2794,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2828,14 +2817,14 @@
         <v>98</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="40" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H21" s="30">
         <v>19</v>
@@ -2844,7 +2833,7 @@
         <v>92</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K21" s="43" t="s">
         <v>69</v>
@@ -2864,16 +2853,16 @@
         <v>6</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2887,16 +2876,16 @@
         <v>98</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="H22" s="30">
         <v>20</v>
@@ -2905,7 +2894,7 @@
         <v>91</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K22" s="43" t="s">
         <v>69</v>
@@ -2925,16 +2914,16 @@
         <v>6</v>
       </c>
       <c r="R22" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S22" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="T22" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="T22" s="28" t="s">
-        <v>159</v>
-      </c>
       <c r="U22" s="37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2948,14 +2937,14 @@
         <v>98</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H23" s="30">
         <v>21</v>
@@ -2964,7 +2953,7 @@
         <v>92</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K23" s="43" t="s">
         <v>69</v>
@@ -2984,16 +2973,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3007,12 +2996,12 @@
         <v>98</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="38"/>
       <c r="G24" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H24" s="30">
         <v>22</v>
@@ -3021,7 +3010,7 @@
         <v>91</v>
       </c>
       <c r="J24" s="41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K24" s="43" t="s">
         <v>69</v>
@@ -3034,7 +3023,7 @@
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P24" s="44" t="s">
         <v>19</v>
@@ -3043,16 +3032,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="S24" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="T24" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U24" s="37" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3066,14 +3055,14 @@
         <v>98</v>
       </c>
       <c r="D25" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>143</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="40" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H25" s="30">
         <v>23</v>
@@ -3082,7 +3071,7 @@
         <v>91</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K25" s="43" t="s">
         <v>70</v>
@@ -3097,19 +3086,19 @@
         <v>19</v>
       </c>
       <c r="Q25" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="S25" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="R25" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="S25" s="28" t="s">
-        <v>187</v>
-      </c>
       <c r="T25" s="28" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="U25" s="37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3123,14 +3112,14 @@
         <v>98</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>143</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="40" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H26" s="30">
         <v>24</v>
@@ -3139,7 +3128,7 @@
         <v>92</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K26" s="43" t="s">
         <v>69</v>
@@ -3159,16 +3148,16 @@
         <v>6</v>
       </c>
       <c r="R26" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S26" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T26" s="28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="U26" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3182,14 +3171,14 @@
         <v>98</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="29" t="s">
         <v>139</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>143</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="41" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H27" s="30">
         <v>25</v>
@@ -3198,7 +3187,7 @@
         <v>92</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K27" s="43" t="s">
         <v>69</v>
@@ -3218,16 +3207,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S27" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T27" s="28" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="U27" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3241,14 +3230,14 @@
         <v>98</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>93</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H28" s="30">
         <v>26</v>
@@ -3257,7 +3246,7 @@
         <v>92</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K28" s="43" t="s">
         <v>69</v>
@@ -3270,7 +3259,7 @@
         <v>62</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P28" s="44" t="s">
         <v>19</v>
@@ -3279,16 +3268,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S28" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T28" s="28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="U28" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3307,7 +3296,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="38"/>
       <c r="G29" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H29" s="30">
         <v>27</v>
@@ -3316,7 +3305,7 @@
         <v>92</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K29" s="43" t="s">
         <v>70</v>
@@ -3331,19 +3320,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="S29" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="R29" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="S29" s="28" t="s">
-        <v>187</v>
-      </c>
       <c r="T29" s="28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="U29" s="37" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3362,7 +3351,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="38"/>
       <c r="G30" s="40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H30" s="30">
         <v>28</v>
@@ -3371,7 +3360,7 @@
         <v>92</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K30" s="43" t="s">
         <v>69</v>
@@ -3391,16 +3380,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S30" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T30" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="U30" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3419,7 +3408,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="38"/>
       <c r="G31" s="40" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H31" s="30">
         <v>29</v>
@@ -3428,7 +3417,7 @@
         <v>92</v>
       </c>
       <c r="J31" s="41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K31" s="43" t="s">
         <v>69</v>
@@ -3448,16 +3437,16 @@
         <v>6</v>
       </c>
       <c r="R31" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S31" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T31" s="28" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
       <c r="U31" s="37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3476,7 +3465,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="38"/>
       <c r="G32" s="40" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H32" s="30">
         <v>30</v>
@@ -3485,13 +3474,13 @@
         <v>92</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K32" s="43" t="s">
         <v>69</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -3530,7 +3519,7 @@
         <v>92</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K33" s="43" t="s">
         <v>69</v>
@@ -3550,16 +3539,16 @@
         <v>6</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T33" s="45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3578,7 +3567,7 @@
       <c r="E34" s="29"/>
       <c r="F34" s="38"/>
       <c r="G34" s="40" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H34" s="30">
         <v>32</v>
@@ -3587,7 +3576,7 @@
         <v>92</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K34" s="43" t="s">
         <v>69</v>
@@ -3607,23 +3596,25 @@
         <v>6</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T34" s="45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U34">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3639,11 +3630,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion07/ESCALETA_CN_08_07_CO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="225">
   <si>
     <t>Asignatura</t>
   </si>
@@ -687,9 +687,6 @@
   </si>
   <si>
     <t>Actividad para repasar los aportes hechos a la genética por Mendel, Sutton, Boveri y Morgan</t>
-  </si>
-  <si>
-    <t>La herencia del sexo y de los caracteres en los cromosomas sexuales</t>
   </si>
   <si>
     <t>Interactivo que expone la teoría cromosómica de la herencia a partir de los trabajos de Mendel, Sutton y Boveri.</t>
@@ -1606,7 +1603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1616,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1762,7 @@
         <v>91</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>69</v>
@@ -1944,7 +1941,7 @@
         <v>91</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>69</v>
@@ -2114,7 +2111,7 @@
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="40" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="H9" s="30">
         <v>7</v>
@@ -2643,7 +2640,7 @@
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H18" s="30">
         <v>16</v>
@@ -3610,11 +3607,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -3630,6 +3622,11 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
